--- a/database/group_a.xlsx
+++ b/database/group_a.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>FIRSTFROMNAME</t>
   </si>
@@ -163,27 +163,6 @@
   </si>
   <si>
     <t>DVl8pCYJ6bUSjWs7</t>
-  </si>
-  <si>
-    <t>Ashlee</t>
-  </si>
-  <si>
-    <t>Cross</t>
-  </si>
-  <si>
-    <t>fasteners360@gmail.com</t>
-  </si>
-  <si>
-    <t>KJoiu(*&amp;%23419$$$IUY</t>
-  </si>
-  <si>
-    <t>81.28.96.172:60742</t>
-  </si>
-  <si>
-    <t>3WGWzEabc7tcRQfZ</t>
-  </si>
-  <si>
-    <t>fwaNRX26D4cb9Uf5</t>
   </si>
 </sst>
 </file>
@@ -990,9 +969,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1226,29 +1207,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" t="s">
-        <v>54</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/group_a.xlsx
+++ b/database/group_a.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Upwork\2020\gmail_app\gmail_app\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34200" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="28800" windowHeight="15465"/>
   </bookViews>
   <sheets>
     <sheet name="group_a" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
   <si>
     <t>FIRSTFROMNAME</t>
   </si>
@@ -42,127 +42,163 @@
     <t>PROXY_PASS</t>
   </si>
   <si>
-    <t>Elva</t>
-  </si>
-  <si>
-    <t>Lynn</t>
-  </si>
-  <si>
-    <t>Elva.Lynn1987@gmail.com</t>
-  </si>
-  <si>
-    <t>C9nqK4Xz6gbUocjf</t>
-  </si>
-  <si>
-    <t>81.28.96.172:43739</t>
-  </si>
-  <si>
-    <t>a4ZJCKXpyPxqtgAt</t>
-  </si>
-  <si>
-    <t>WZRYymEeVjfQeR6Z</t>
-  </si>
-  <si>
-    <t>Daphne</t>
-  </si>
-  <si>
-    <t>Boone</t>
-  </si>
-  <si>
-    <t>Daphne.Boone2002@gmail.com</t>
-  </si>
-  <si>
-    <t>aPxbySqRts82761Y</t>
-  </si>
-  <si>
-    <t>81.28.96.172:30660</t>
-  </si>
-  <si>
-    <t>Loretta</t>
-  </si>
-  <si>
-    <t>Douglas</t>
-  </si>
-  <si>
-    <t>Loretta.Douglas1999@gmail.com</t>
-  </si>
-  <si>
-    <t>J81VtrwOdF2SGqj6</t>
-  </si>
-  <si>
-    <t>81.28.96.172:41489</t>
-  </si>
-  <si>
-    <t>Rene</t>
-  </si>
-  <si>
-    <t>Huber</t>
-  </si>
-  <si>
-    <t>Rene.Huber1999@gmail.com</t>
-  </si>
-  <si>
-    <t>oL30u8vUSzaRp5kn</t>
+    <t>Janet</t>
+  </si>
+  <si>
+    <t>Richards</t>
+  </si>
+  <si>
+    <t>ftgrowth18@gmail.com</t>
+  </si>
+  <si>
+    <t>FuckYou!69</t>
+  </si>
+  <si>
+    <t>81.28.96.116:5380</t>
+  </si>
+  <si>
+    <t>8F8vehQyyvJUFXnF</t>
+  </si>
+  <si>
+    <t>rumWB47pBcfT53kK</t>
+  </si>
+  <si>
+    <t>Sophie</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>ftgrowth19@gmail.com</t>
+  </si>
+  <si>
+    <t>Ella</t>
+  </si>
+  <si>
+    <t>Harris</t>
+  </si>
+  <si>
+    <t>ftgrowth20@gmail.com</t>
+  </si>
+  <si>
+    <t>HuggyBear!25</t>
+  </si>
+  <si>
+    <t>Kayleigh</t>
+  </si>
+  <si>
+    <t>Shields</t>
+  </si>
+  <si>
+    <t>ftgrowth21@gmail.com</t>
+  </si>
+  <si>
+    <t>HappyHippo!95</t>
+  </si>
+  <si>
+    <t>Rebecca</t>
+  </si>
+  <si>
+    <t>Harrison</t>
+  </si>
+  <si>
+    <t>ftgrowth22@gmail.com</t>
+  </si>
+  <si>
+    <t>PuffItUp!23</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>Hampton</t>
+  </si>
+  <si>
+    <t>ftgrowth23@gmail.com</t>
+  </si>
+  <si>
+    <t>SillySlag!45</t>
+  </si>
+  <si>
+    <t>81.28.96.116:4493</t>
+  </si>
+  <si>
+    <t>Louise</t>
+  </si>
+  <si>
+    <t>Harding</t>
+  </si>
+  <si>
+    <t>ftgrowth24@gmail.com</t>
+  </si>
+  <si>
+    <t>MintTea!26</t>
   </si>
   <si>
     <t>Paula</t>
   </si>
   <si>
-    <t>Robertson</t>
-  </si>
-  <si>
-    <t>Paula.Robertson2000@gmail.com</t>
-  </si>
-  <si>
-    <t>l0wkPivmX2FRsCcW</t>
-  </si>
-  <si>
-    <t>Keri</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
-    <t>Keri.Long1998@gmail.com</t>
-  </si>
-  <si>
-    <t>f0xDq4Xgy3nPoMYc</t>
-  </si>
-  <si>
-    <t>Polly</t>
-  </si>
-  <si>
-    <t>Whitehead</t>
-  </si>
-  <si>
-    <t>Polly.Whitehead1997@gmail.com</t>
-  </si>
-  <si>
-    <t>l8RGLVP17bJ4idAF</t>
-  </si>
-  <si>
-    <t>Anne</t>
-  </si>
-  <si>
-    <t>Carlson</t>
-  </si>
-  <si>
-    <t>Anne.Carlson1999@gmail.com</t>
-  </si>
-  <si>
-    <t>BwOdRHpL503bueZC</t>
-  </si>
-  <si>
-    <t>Aurelia</t>
-  </si>
-  <si>
-    <t>Rodriquez</t>
-  </si>
-  <si>
-    <t>Aurelia.Rodriquez1995@gmail.com</t>
-  </si>
-  <si>
-    <t>DVl8pCYJ6bUSjWs7</t>
+    <t>Graves</t>
+  </si>
+  <si>
+    <t>ftgrowth25@gmail.com</t>
+  </si>
+  <si>
+    <t>ThorpeHall!92</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>ftgrowth27@gmail.com</t>
+  </si>
+  <si>
+    <t>WillyWonka!67</t>
+  </si>
+  <si>
+    <t>Talia</t>
+  </si>
+  <si>
+    <t>Keeley</t>
+  </si>
+  <si>
+    <t>ftgrowth28@gmail.com</t>
+  </si>
+  <si>
+    <t>BabyYoda!34</t>
+  </si>
+  <si>
+    <t>Jasmine</t>
+  </si>
+  <si>
+    <t>Chawner</t>
+  </si>
+  <si>
+    <t>ftgrowth30@gmail.com</t>
+  </si>
+  <si>
+    <t>WookieBreath!78</t>
+  </si>
+  <si>
+    <t>Tiffany</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>ftgrowth32@gmail.com</t>
+  </si>
+  <si>
+    <t>ViridianSteel!69</t>
+  </si>
+  <si>
+    <t>81.28.96.250:63404</t>
+  </si>
+  <si>
+    <t>7cFvXD2jtq67Zmrv</t>
+  </si>
+  <si>
+    <t>aupuj2CjZbRF8wyb</t>
   </si>
 </sst>
 </file>
@@ -231,7 +267,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -624,27 +660,27 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -723,7 +759,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -735,7 +771,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -752,9 +788,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -782,14 +818,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -817,6 +870,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -969,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,10 +1104,10 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -1048,19 +1118,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -1071,16 +1141,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -1094,19 +1164,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -1117,19 +1187,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -1140,19 +1210,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -1163,19 +1233,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -1186,25 +1256,94 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
         <v>44</v>
       </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/database/group_a.xlsx
+++ b/database/group_a.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Upwork\2020\gmail_app\gmail_app\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="28800" windowHeight="15465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34200" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="group_a" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>FIRSTFROMNAME</t>
   </si>
@@ -42,163 +42,127 @@
     <t>PROXY_PASS</t>
   </si>
   <si>
-    <t>Janet</t>
-  </si>
-  <si>
-    <t>Richards</t>
-  </si>
-  <si>
-    <t>ftgrowth18@gmail.com</t>
-  </si>
-  <si>
-    <t>FuckYou!69</t>
-  </si>
-  <si>
-    <t>81.28.96.116:5380</t>
-  </si>
-  <si>
-    <t>8F8vehQyyvJUFXnF</t>
-  </si>
-  <si>
-    <t>rumWB47pBcfT53kK</t>
-  </si>
-  <si>
-    <t>Sophie</t>
-  </si>
-  <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>ftgrowth19@gmail.com</t>
-  </si>
-  <si>
-    <t>Ella</t>
-  </si>
-  <si>
-    <t>Harris</t>
-  </si>
-  <si>
-    <t>ftgrowth20@gmail.com</t>
-  </si>
-  <si>
-    <t>HuggyBear!25</t>
-  </si>
-  <si>
-    <t>Kayleigh</t>
-  </si>
-  <si>
-    <t>Shields</t>
-  </si>
-  <si>
-    <t>ftgrowth21@gmail.com</t>
-  </si>
-  <si>
-    <t>HappyHippo!95</t>
-  </si>
-  <si>
-    <t>Rebecca</t>
-  </si>
-  <si>
-    <t>Harrison</t>
-  </si>
-  <si>
-    <t>ftgrowth22@gmail.com</t>
-  </si>
-  <si>
-    <t>PuffItUp!23</t>
-  </si>
-  <si>
-    <t>Olivia</t>
-  </si>
-  <si>
-    <t>Hampton</t>
-  </si>
-  <si>
-    <t>ftgrowth23@gmail.com</t>
-  </si>
-  <si>
-    <t>SillySlag!45</t>
-  </si>
-  <si>
-    <t>81.28.96.116:4493</t>
-  </si>
-  <si>
-    <t>Louise</t>
-  </si>
-  <si>
-    <t>Harding</t>
-  </si>
-  <si>
-    <t>ftgrowth24@gmail.com</t>
-  </si>
-  <si>
-    <t>MintTea!26</t>
+    <t>Elva</t>
+  </si>
+  <si>
+    <t>Lynn</t>
+  </si>
+  <si>
+    <t>Elva.Lynn1987@gmail.com</t>
+  </si>
+  <si>
+    <t>C9nqK4Xz6gbUocjf</t>
+  </si>
+  <si>
+    <t>81.28.96.172:43739</t>
+  </si>
+  <si>
+    <t>a4ZJCKXpyPxqtgAt</t>
+  </si>
+  <si>
+    <t>WZRYymEeVjfQeR6Z</t>
+  </si>
+  <si>
+    <t>Daphne</t>
+  </si>
+  <si>
+    <t>Boone</t>
+  </si>
+  <si>
+    <t>Daphne.Boone2002@gmail.com</t>
+  </si>
+  <si>
+    <t>aPxbySqRts82761Y</t>
+  </si>
+  <si>
+    <t>81.28.96.172:30660</t>
+  </si>
+  <si>
+    <t>Loretta</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>Loretta.Douglas1999@gmail.com</t>
+  </si>
+  <si>
+    <t>J81VtrwOdF2SGqj6</t>
+  </si>
+  <si>
+    <t>81.28.96.172:41489</t>
+  </si>
+  <si>
+    <t>Rene</t>
+  </si>
+  <si>
+    <t>Huber</t>
+  </si>
+  <si>
+    <t>Rene.Huber1999@gmail.com</t>
+  </si>
+  <si>
+    <t>oL30u8vUSzaRp5kn</t>
   </si>
   <si>
     <t>Paula</t>
   </si>
   <si>
-    <t>Graves</t>
-  </si>
-  <si>
-    <t>ftgrowth25@gmail.com</t>
-  </si>
-  <si>
-    <t>ThorpeHall!92</t>
-  </si>
-  <si>
-    <t>Lucas</t>
-  </si>
-  <si>
-    <t>ftgrowth27@gmail.com</t>
-  </si>
-  <si>
-    <t>WillyWonka!67</t>
-  </si>
-  <si>
-    <t>Talia</t>
-  </si>
-  <si>
-    <t>Keeley</t>
-  </si>
-  <si>
-    <t>ftgrowth28@gmail.com</t>
-  </si>
-  <si>
-    <t>BabyYoda!34</t>
-  </si>
-  <si>
-    <t>Jasmine</t>
-  </si>
-  <si>
-    <t>Chawner</t>
-  </si>
-  <si>
-    <t>ftgrowth30@gmail.com</t>
-  </si>
-  <si>
-    <t>WookieBreath!78</t>
-  </si>
-  <si>
-    <t>Tiffany</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>ftgrowth32@gmail.com</t>
-  </si>
-  <si>
-    <t>ViridianSteel!69</t>
-  </si>
-  <si>
-    <t>81.28.96.250:63404</t>
-  </si>
-  <si>
-    <t>7cFvXD2jtq67Zmrv</t>
-  </si>
-  <si>
-    <t>aupuj2CjZbRF8wyb</t>
+    <t>Robertson</t>
+  </si>
+  <si>
+    <t>Paula.Robertson2000@gmail.com</t>
+  </si>
+  <si>
+    <t>l0wkPivmX2FRsCcW</t>
+  </si>
+  <si>
+    <t>Keri</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Keri.Long1998@gmail.com</t>
+  </si>
+  <si>
+    <t>f0xDq4Xgy3nPoMYc</t>
+  </si>
+  <si>
+    <t>Polly</t>
+  </si>
+  <si>
+    <t>Whitehead</t>
+  </si>
+  <si>
+    <t>Polly.Whitehead1997@gmail.com</t>
+  </si>
+  <si>
+    <t>l8RGLVP17bJ4idAF</t>
+  </si>
+  <si>
+    <t>Anne</t>
+  </si>
+  <si>
+    <t>Carlson</t>
+  </si>
+  <si>
+    <t>Anne.Carlson1999@gmail.com</t>
+  </si>
+  <si>
+    <t>BwOdRHpL503bueZC</t>
+  </si>
+  <si>
+    <t>Aurelia</t>
+  </si>
+  <si>
+    <t>Rodriquez</t>
+  </si>
+  <si>
+    <t>Aurelia.Rodriquez1995@gmail.com</t>
+  </si>
+  <si>
+    <t>DVl8pCYJ6bUSjWs7</t>
   </si>
 </sst>
 </file>
@@ -267,7 +231,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -660,27 +624,27 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -759,7 +723,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -771,7 +735,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -788,9 +752,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -818,31 +782,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -870,23 +817,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1039,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,10 +1034,10 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -1118,19 +1048,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -1141,16 +1071,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -1164,19 +1094,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -1187,19 +1117,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -1210,19 +1140,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -1233,19 +1163,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -1256,94 +1186,25 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/database/group_a.xlsx
+++ b/database/group_a.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
   <si>
     <t>FIRSTFROMNAME</t>
   </si>
@@ -163,6 +163,81 @@
   </si>
   <si>
     <t>DVl8pCYJ6bUSjWs7</t>
+  </si>
+  <si>
+    <t>Courtney</t>
+  </si>
+  <si>
+    <t>Holcomb</t>
+  </si>
+  <si>
+    <t>Courtney.Holcomb.1992@gmail.com</t>
+  </si>
+  <si>
+    <t>J90PAVtH85i1vC2h</t>
+  </si>
+  <si>
+    <t>81.28.96.172:15878</t>
+  </si>
+  <si>
+    <t>Jill</t>
+  </si>
+  <si>
+    <t>Middleton</t>
+  </si>
+  <si>
+    <t>Jill.Middleton.1980@gmail.com</t>
+  </si>
+  <si>
+    <t>QkserjiJNZGdu5WF</t>
+  </si>
+  <si>
+    <t>81.28.96.172:65448</t>
+  </si>
+  <si>
+    <t>Justine</t>
+  </si>
+  <si>
+    <t>Lester</t>
+  </si>
+  <si>
+    <t>Justine.Lester.1981@gmail.com</t>
+  </si>
+  <si>
+    <t>DpzEuqQtJsn0l65F</t>
+  </si>
+  <si>
+    <t>81.28.96.172:5596</t>
+  </si>
+  <si>
+    <t>Ola</t>
+  </si>
+  <si>
+    <t>Hampton</t>
+  </si>
+  <si>
+    <t>Ola.Hampton.1982@gmail.com</t>
+  </si>
+  <si>
+    <t>kgQdKfc8IHlw1CWO</t>
+  </si>
+  <si>
+    <t>81.28.96.172:65014</t>
+  </si>
+  <si>
+    <t>Earlene</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Earlene.Simon.1983@gmail.com</t>
+  </si>
+  <si>
+    <t>qlrLPymGRdcEZo1h</t>
+  </si>
+  <si>
+    <t>81.28.96.172:3222</t>
   </si>
 </sst>
 </file>
@@ -969,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,6 +1282,121 @@
         <v>13</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/group_a.xlsx
+++ b/database/group_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Upwork\2020\gmail_app\gmail_app\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Upwork\2020\gmail_app\gmail_app\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>FIRSTFROMNAME</t>
   </si>
@@ -42,202 +42,73 @@
     <t>PROXY_PASS</t>
   </si>
   <si>
-    <t>Elva</t>
-  </si>
-  <si>
-    <t>Lynn</t>
-  </si>
-  <si>
-    <t>Elva.Lynn1987@gmail.com</t>
-  </si>
-  <si>
-    <t>C9nqK4Xz6gbUocjf</t>
-  </si>
-  <si>
-    <t>81.28.96.172:43739</t>
-  </si>
-  <si>
-    <t>a4ZJCKXpyPxqtgAt</t>
-  </si>
-  <si>
-    <t>WZRYymEeVjfQeR6Z</t>
-  </si>
-  <si>
-    <t>Daphne</t>
-  </si>
-  <si>
-    <t>Boone</t>
-  </si>
-  <si>
-    <t>Daphne.Boone2002@gmail.com</t>
-  </si>
-  <si>
-    <t>aPxbySqRts82761Y</t>
-  </si>
-  <si>
-    <t>81.28.96.172:30660</t>
-  </si>
-  <si>
-    <t>Loretta</t>
-  </si>
-  <si>
-    <t>Douglas</t>
-  </si>
-  <si>
-    <t>Loretta.Douglas1999@gmail.com</t>
-  </si>
-  <si>
-    <t>J81VtrwOdF2SGqj6</t>
-  </si>
-  <si>
-    <t>81.28.96.172:41489</t>
-  </si>
-  <si>
-    <t>Rene</t>
-  </si>
-  <si>
-    <t>Huber</t>
-  </si>
-  <si>
-    <t>Rene.Huber1999@gmail.com</t>
-  </si>
-  <si>
-    <t>oL30u8vUSzaRp5kn</t>
-  </si>
-  <si>
-    <t>Paula</t>
-  </si>
-  <si>
-    <t>Robertson</t>
-  </si>
-  <si>
-    <t>Paula.Robertson2000@gmail.com</t>
-  </si>
-  <si>
-    <t>l0wkPivmX2FRsCcW</t>
-  </si>
-  <si>
-    <t>Keri</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
-    <t>Keri.Long1998@gmail.com</t>
-  </si>
-  <si>
-    <t>f0xDq4Xgy3nPoMYc</t>
-  </si>
-  <si>
-    <t>Polly</t>
-  </si>
-  <si>
-    <t>Whitehead</t>
-  </si>
-  <si>
-    <t>Polly.Whitehead1997@gmail.com</t>
-  </si>
-  <si>
-    <t>l8RGLVP17bJ4idAF</t>
-  </si>
-  <si>
-    <t>Anne</t>
-  </si>
-  <si>
-    <t>Carlson</t>
-  </si>
-  <si>
-    <t>Anne.Carlson1999@gmail.com</t>
-  </si>
-  <si>
-    <t>BwOdRHpL503bueZC</t>
-  </si>
-  <si>
-    <t>Aurelia</t>
-  </si>
-  <si>
-    <t>Rodriquez</t>
-  </si>
-  <si>
-    <t>Aurelia.Rodriquez1995@gmail.com</t>
-  </si>
-  <si>
-    <t>DVl8pCYJ6bUSjWs7</t>
-  </si>
-  <si>
-    <t>Courtney</t>
-  </si>
-  <si>
-    <t>Holcomb</t>
-  </si>
-  <si>
-    <t>Courtney.Holcomb.1992@gmail.com</t>
-  </si>
-  <si>
-    <t>J90PAVtH85i1vC2h</t>
-  </si>
-  <si>
-    <t>81.28.96.172:15878</t>
-  </si>
-  <si>
-    <t>Jill</t>
-  </si>
-  <si>
-    <t>Middleton</t>
-  </si>
-  <si>
-    <t>Jill.Middleton.1980@gmail.com</t>
-  </si>
-  <si>
-    <t>QkserjiJNZGdu5WF</t>
-  </si>
-  <si>
-    <t>81.28.96.172:65448</t>
-  </si>
-  <si>
-    <t>Justine</t>
-  </si>
-  <si>
-    <t>Lester</t>
-  </si>
-  <si>
-    <t>Justine.Lester.1981@gmail.com</t>
-  </si>
-  <si>
-    <t>DpzEuqQtJsn0l65F</t>
-  </si>
-  <si>
-    <t>81.28.96.172:5596</t>
-  </si>
-  <si>
-    <t>Ola</t>
-  </si>
-  <si>
-    <t>Hampton</t>
-  </si>
-  <si>
-    <t>Ola.Hampton.1982@gmail.com</t>
-  </si>
-  <si>
-    <t>kgQdKfc8IHlw1CWO</t>
-  </si>
-  <si>
-    <t>81.28.96.172:65014</t>
-  </si>
-  <si>
-    <t>Earlene</t>
-  </si>
-  <si>
-    <t>Simon</t>
-  </si>
-  <si>
-    <t>Earlene.Simon.1983@gmail.com</t>
-  </si>
-  <si>
-    <t>qlrLPymGRdcEZo1h</t>
-  </si>
-  <si>
-    <t>81.28.96.172:3222</t>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>Logans</t>
+  </si>
+  <si>
+    <t>frankinsonloslogansi@gmail.com</t>
+  </si>
+  <si>
+    <t>kdejqyra</t>
+  </si>
+  <si>
+    <t>185.24.233.182:4006</t>
+  </si>
+  <si>
+    <t>8GbKtEpRUr29jbg5</t>
+  </si>
+  <si>
+    <t>TMwprA4NyqSKxc6V</t>
+  </si>
+  <si>
+    <t>Frederick</t>
+  </si>
+  <si>
+    <t>Salamon</t>
+  </si>
+  <si>
+    <t>fredericksongatsalamon@gmail.com</t>
+  </si>
+  <si>
+    <t>kyqcxzun</t>
+  </si>
+  <si>
+    <t>185.24.233.182:4007</t>
+  </si>
+  <si>
+    <t>Morrison</t>
+  </si>
+  <si>
+    <t>frankinsonleemorison443@gmail.com</t>
+  </si>
+  <si>
+    <t>qzbsvkrp</t>
+  </si>
+  <si>
+    <t>185.24.233.182:4008</t>
+  </si>
+  <si>
+    <t>Vartinson</t>
+  </si>
+  <si>
+    <t>fredriksonkarlosvartinson@gmail.com</t>
+  </si>
+  <si>
+    <t>enpxdtwh</t>
+  </si>
+  <si>
+    <t>185.24.233.182:4009</t>
+  </si>
+  <si>
+    <t>Johnsson</t>
+  </si>
+  <si>
+    <t>frankinsonleejhonson5@gmail.com</t>
+  </si>
+  <si>
+    <t>vznrcpwb</t>
   </si>
 </sst>
 </file>
@@ -1044,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,19 +994,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -1146,19 +1017,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -1169,231 +1040,24 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
         <v>13</v>
       </c>
     </row>

--- a/database/group_a.xlsx
+++ b/database/group_a.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34200" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34200" windowHeight="11616"/>
   </bookViews>
   <sheets>
     <sheet name="group_a" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>FIRSTFROMNAME</t>
   </si>
@@ -109,6 +109,21 @@
   </si>
   <si>
     <t>vznrcpwb</t>
+  </si>
+  <si>
+    <t>mrshahimranshovon@gmail.com</t>
+  </si>
+  <si>
+    <t>twg5ZmvBqsixAfr</t>
+  </si>
+  <si>
+    <t>8GbKtEpRUr29jbg6</t>
+  </si>
+  <si>
+    <t>Shah</t>
+  </si>
+  <si>
+    <t>Imran</t>
   </si>
 </sst>
 </file>
@@ -915,15 +930,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -946,44 +965,44 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -992,21 +1011,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -1015,21 +1034,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -1038,26 +1057,49 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
         <v>13</v>
       </c>
     </row>

--- a/database/group_a.xlsx
+++ b/database/group_a.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="260">
   <si>
     <t>FIRSTFROMNAME</t>
   </si>
@@ -42,95 +42,770 @@
     <t>PROXY_PASS</t>
   </si>
   <si>
-    <t>Franklin</t>
-  </si>
-  <si>
-    <t>Logans</t>
-  </si>
-  <si>
-    <t>frankinsonloslogansi@gmail.com</t>
-  </si>
-  <si>
-    <t>kdejqyra</t>
-  </si>
-  <si>
-    <t>185.24.233.182:4006</t>
-  </si>
-  <si>
-    <t>8GbKtEpRUr29jbg5</t>
-  </si>
-  <si>
-    <t>TMwprA4NyqSKxc6V</t>
-  </si>
-  <si>
-    <t>Frederick</t>
-  </si>
-  <si>
-    <t>Salamon</t>
-  </si>
-  <si>
-    <t>fredericksongatsalamon@gmail.com</t>
-  </si>
-  <si>
-    <t>kyqcxzun</t>
-  </si>
-  <si>
-    <t>185.24.233.182:4007</t>
-  </si>
-  <si>
-    <t>Morrison</t>
-  </si>
-  <si>
-    <t>frankinsonleemorison443@gmail.com</t>
-  </si>
-  <si>
-    <t>qzbsvkrp</t>
-  </si>
-  <si>
-    <t>185.24.233.182:4008</t>
-  </si>
-  <si>
-    <t>Vartinson</t>
-  </si>
-  <si>
-    <t>fredriksonkarlosvartinson@gmail.com</t>
-  </si>
-  <si>
-    <t>enpxdtwh</t>
-  </si>
-  <si>
-    <t>185.24.233.182:4009</t>
-  </si>
-  <si>
-    <t>Johnsson</t>
-  </si>
-  <si>
-    <t>frankinsonleejhonson5@gmail.com</t>
-  </si>
-  <si>
-    <t>vznrcpwb</t>
-  </si>
-  <si>
-    <t>mrshahimranshovon@gmail.com</t>
-  </si>
-  <si>
-    <t>twg5ZmvBqsixAfr</t>
-  </si>
-  <si>
-    <t>8GbKtEpRUr29jbg6</t>
-  </si>
-  <si>
-    <t>Shah</t>
-  </si>
-  <si>
-    <t>Imran</t>
+    <t>Elvis</t>
+  </si>
+  <si>
+    <t>Nolte</t>
+  </si>
+  <si>
+    <t>nolteelvis606@gmail.com</t>
+  </si>
+  <si>
+    <t>CHNFGJrturtiru4574</t>
+  </si>
+  <si>
+    <t>81.28.96.207:4021</t>
+  </si>
+  <si>
+    <t>PDmZ3WXF9RUC89KV</t>
+  </si>
+  <si>
+    <t>d8CUDDcpXHbgpgHh</t>
+  </si>
+  <si>
+    <t>Marie</t>
+  </si>
+  <si>
+    <t>Hughes</t>
+  </si>
+  <si>
+    <t>mariehughes053@gmail.com</t>
+  </si>
+  <si>
+    <t>yzhsybdywhud</t>
+  </si>
+  <si>
+    <t>81.28.96.212:4046</t>
+  </si>
+  <si>
+    <t>X7TAePrnpFSjx7XT</t>
+  </si>
+  <si>
+    <t>qZYMuNafMchx5nz4</t>
+  </si>
+  <si>
+    <t>Craig</t>
+  </si>
+  <si>
+    <t>Winstead</t>
+  </si>
+  <si>
+    <t>craig7winstead614455@gmail.com</t>
+  </si>
+  <si>
+    <t>Cvbn2582</t>
+  </si>
+  <si>
+    <t>81.28.96.137:4005</t>
+  </si>
+  <si>
+    <t>pp3wCwtFw7r6GmwY</t>
+  </si>
+  <si>
+    <t>pbnXAK4KurcpTmEB</t>
+  </si>
+  <si>
+    <t>Joan</t>
+  </si>
+  <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>Joanturner45632@gmail.com</t>
+  </si>
+  <si>
+    <t>fwchspxmqa</t>
+  </si>
+  <si>
+    <t>81.28.96.212:4026</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Romajun</t>
+  </si>
+  <si>
+    <t>romajunalex01890@gmail.com</t>
+  </si>
+  <si>
+    <t>XCVDFSreteryt4564</t>
+  </si>
+  <si>
+    <t>81.28.96.207:4025</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Hawkinse</t>
+  </si>
+  <si>
+    <t>hawkinselisa926@gmail.com</t>
+  </si>
+  <si>
+    <t>dpcjzhfbea</t>
+  </si>
+  <si>
+    <t>81.28.96.212:4038</t>
+  </si>
+  <si>
+    <t>Anibal</t>
+  </si>
+  <si>
+    <t>Lillard</t>
+  </si>
+  <si>
+    <t>aaniballlillard376@gmail.com</t>
+  </si>
+  <si>
+    <t>CDFfre34</t>
+  </si>
+  <si>
+    <t>81.28.96.137:4002</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Douthit</t>
+  </si>
+  <si>
+    <t>benjamindouthit555@gmail.com</t>
+  </si>
+  <si>
+    <t>AliVE108</t>
+  </si>
+  <si>
+    <t>192.227.142.207:3160</t>
+  </si>
+  <si>
+    <t>ffJXcZqmbUH8764W</t>
+  </si>
+  <si>
+    <t>QYcQAKBBr4REYqnp</t>
+  </si>
+  <si>
+    <t>Catherine</t>
+  </si>
+  <si>
+    <t>Bailey</t>
+  </si>
+  <si>
+    <t>cb48272@gmail.com</t>
+  </si>
+  <si>
+    <t>XDFJ&amp;^^%$#&amp;***(D456</t>
+  </si>
+  <si>
+    <t>81.28.96.137:4016</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Daniels</t>
+  </si>
+  <si>
+    <t>danielsmadison14@gmail.com</t>
+  </si>
+  <si>
+    <t>fxbsybxyshu</t>
+  </si>
+  <si>
+    <t>81.28.96.147:4020</t>
+  </si>
+  <si>
+    <t>3kJnrnp9pLc5eW64</t>
+  </si>
+  <si>
+    <t>55qcuaAF6KsJzYp8</t>
+  </si>
+  <si>
+    <t>Lorik</t>
+  </si>
+  <si>
+    <t>Frash毛ria</t>
+  </si>
+  <si>
+    <t>lorikfrasheria1@gmail.com</t>
+  </si>
+  <si>
+    <t>gRoYWXwxdJ</t>
+  </si>
+  <si>
+    <t>81.28.96.137:4029</t>
+  </si>
+  <si>
+    <t>Ronald</t>
+  </si>
+  <si>
+    <t>Gibb</t>
+  </si>
+  <si>
+    <t>ronaldgibb778@gmail.com</t>
+  </si>
+  <si>
+    <t>gghh1122</t>
+  </si>
+  <si>
+    <t>81.28.96.137:4027</t>
+  </si>
+  <si>
+    <t>Neca</t>
+  </si>
+  <si>
+    <t>Rivera</t>
+  </si>
+  <si>
+    <t>necarivera390@gmail.com</t>
+  </si>
+  <si>
+    <t>gxheyhdywhyd</t>
+  </si>
+  <si>
+    <t>81.28.96.147:4027</t>
+  </si>
+  <si>
+    <t>Carol</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>CarolHoward3262@gmail.com</t>
+  </si>
+  <si>
+    <t>How45ta34d</t>
+  </si>
+  <si>
+    <t>81.28.96.212:4040</t>
+  </si>
+  <si>
+    <t>Jean</t>
+  </si>
+  <si>
+    <t>Wilsone</t>
+  </si>
+  <si>
+    <t>wilsonejean66@gmail.com</t>
+  </si>
+  <si>
+    <t>xweuhcnzdk</t>
+  </si>
+  <si>
+    <t>81.28.96.134:45595</t>
+  </si>
+  <si>
+    <t>8ZWxTTnk5EG2JsYG</t>
+  </si>
+  <si>
+    <t>4MGK6SU9ySc66vJF</t>
+  </si>
+  <si>
+    <t>Orgest</t>
+  </si>
+  <si>
+    <t>Bogdanir</t>
+  </si>
+  <si>
+    <t>Autumncorataylerlop726@gmail.com</t>
+  </si>
+  <si>
+    <t>dcbalquuzr</t>
+  </si>
+  <si>
+    <t>81.28.96.137:4007</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Baidwn</t>
+  </si>
+  <si>
+    <t>joebaidwn1@gmail.com</t>
+  </si>
+  <si>
+    <t>CXBGDFHrtutryi678</t>
+  </si>
+  <si>
+    <t>81.28.96.207:4023</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Fishera</t>
+  </si>
+  <si>
+    <t>maryfishera7@gmail.com</t>
+  </si>
+  <si>
+    <t>Kolomq1w2s</t>
+  </si>
+  <si>
+    <t>81.28.96.147:4014</t>
+  </si>
+  <si>
+    <t>Julie</t>
+  </si>
+  <si>
+    <t>Hasen</t>
+  </si>
+  <si>
+    <t>jhasen302@gmail.com</t>
+  </si>
+  <si>
+    <t>ZDFH()(*^%^$%@SDG56</t>
+  </si>
+  <si>
+    <t>Rosalind</t>
+  </si>
+  <si>
+    <t>Moreno</t>
+  </si>
+  <si>
+    <t>rosalindmoreno53875@gmail.com</t>
+  </si>
+  <si>
+    <t>FGJHG';\;[]=-0JKL57Y</t>
+  </si>
+  <si>
+    <t>81.28.96.137:4023</t>
+  </si>
+  <si>
+    <t>Daren</t>
+  </si>
+  <si>
+    <t>Danis</t>
+  </si>
+  <si>
+    <t>darendanis221@gmail.com</t>
+  </si>
+  <si>
+    <t>PAINful00</t>
+  </si>
+  <si>
+    <t>81.28.96.212:4023</t>
+  </si>
+  <si>
+    <t>Courtney</t>
+  </si>
+  <si>
+    <t>Gowin</t>
+  </si>
+  <si>
+    <t>courtney2gowin6445@gmail.com</t>
+  </si>
+  <si>
+    <t>Derf9879</t>
+  </si>
+  <si>
+    <t>Keishlyann</t>
+  </si>
+  <si>
+    <t>Marcano</t>
+  </si>
+  <si>
+    <t>keishlyannm16@gmail.com</t>
+  </si>
+  <si>
+    <t>gzbsybxtehuf</t>
+  </si>
+  <si>
+    <t>81.28.96.147:4015</t>
+  </si>
+  <si>
+    <t>Tari</t>
+  </si>
+  <si>
+    <t>Gy枚ngyi</t>
+  </si>
+  <si>
+    <t>tarigyongyihu12@gmail.com</t>
+  </si>
+  <si>
+    <t>howareyouhu12</t>
+  </si>
+  <si>
+    <t>81.28.96.137:4039</t>
+  </si>
+  <si>
+    <t>Margaret</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>Margaretnelson56743@gmail.com</t>
+  </si>
+  <si>
+    <t>smeyfbukwd</t>
+  </si>
+  <si>
+    <t>81.28.96.137:4047</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Nion</t>
+  </si>
+  <si>
+    <t>clarknion861@gmail.com</t>
+  </si>
+  <si>
+    <t>gdhwyhfyhd</t>
+  </si>
+  <si>
+    <t>81.28.96.137:4041</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Thiel</t>
+  </si>
+  <si>
+    <t>sandrathiel7638@gmail.com</t>
+  </si>
+  <si>
+    <t>FGJKGK\';\;[]-90H567G</t>
+  </si>
+  <si>
+    <t>Katherine</t>
+  </si>
+  <si>
+    <t>Dixon</t>
+  </si>
+  <si>
+    <t>isanjerin37579@gmail.com</t>
+  </si>
+  <si>
+    <t>XDZFGStyritiktri47474</t>
+  </si>
+  <si>
+    <t>81.28.96.207:4036</t>
+  </si>
+  <si>
+    <t>Moses</t>
+  </si>
+  <si>
+    <t>Synder</t>
+  </si>
+  <si>
+    <t>mosessynder334@gmail.com</t>
+  </si>
+  <si>
+    <t>Ftyhui90</t>
+  </si>
+  <si>
+    <t>81.28.96.137:4024</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Xampa</t>
+  </si>
+  <si>
+    <t>adamxampa733@gmail.com</t>
+  </si>
+  <si>
+    <t>CVBDFrtyutruifgh567</t>
+  </si>
+  <si>
+    <t>23.94.96.119:3139</t>
+  </si>
+  <si>
+    <t>6TFkNpfJJP2mVJ27</t>
+  </si>
+  <si>
+    <t>98hyShw5PC9D2vgw</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Wilham</t>
+  </si>
+  <si>
+    <t>wilhamdavid03@gmail.com</t>
+  </si>
+  <si>
+    <t>fchtysd573w4rgh</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Peterse</t>
+  </si>
+  <si>
+    <t>juliapeterse78@gmail.com</t>
+  </si>
+  <si>
+    <t>zakbfjwqhs</t>
+  </si>
+  <si>
+    <t>81.28.96.212:4027</t>
+  </si>
+  <si>
+    <t>Alexis</t>
+  </si>
+  <si>
+    <t>Chapman</t>
+  </si>
+  <si>
+    <t>DamonSprains852@gmail.com</t>
+  </si>
+  <si>
+    <t>dsfvg2020</t>
+  </si>
+  <si>
+    <t>81.28.96.207:4020</t>
+  </si>
+  <si>
+    <t>Kemo</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>kemopaul8931@gmail.com</t>
+  </si>
+  <si>
+    <t>CBDFHtyrtfhryt4556</t>
+  </si>
+  <si>
+    <t>Olga</t>
+  </si>
+  <si>
+    <t>Mazur</t>
+  </si>
+  <si>
+    <t>olgamazurpo01@gmail.com</t>
+  </si>
+  <si>
+    <t>howareyoupo01</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>Longer</t>
+  </si>
+  <si>
+    <t>longerlouis029@gmail.com</t>
+  </si>
+  <si>
+    <t>ukzyfqjegv</t>
+  </si>
+  <si>
+    <t>81.28.96.137:4015</t>
+  </si>
+  <si>
+    <t>alex</t>
+  </si>
+  <si>
+    <t>heals</t>
+  </si>
+  <si>
+    <t>Alexheal77@gmail.com</t>
+  </si>
+  <si>
+    <t>CXVBDFerteryg456</t>
+  </si>
+  <si>
+    <t>23.94.96.119:3134</t>
+  </si>
+  <si>
+    <t>Kathy</t>
+  </si>
+  <si>
+    <t>Crawford</t>
+  </si>
+  <si>
+    <t>kathycrawford284@gmail.com</t>
+  </si>
+  <si>
+    <t>XCBDF#$($#@!DFH454</t>
+  </si>
+  <si>
+    <t>81.28.96.137:4008</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
+  </si>
+  <si>
+    <t>Krupa</t>
+  </si>
+  <si>
+    <t>mitchellkrupa572@gmail.com</t>
+  </si>
+  <si>
+    <t>HEsitate18</t>
+  </si>
+  <si>
+    <t>81.28.96.137:4035</t>
+  </si>
+  <si>
+    <t>Sanford</t>
+  </si>
+  <si>
+    <t>Eddington</t>
+  </si>
+  <si>
+    <t>sanfordeddington290@gmail.com</t>
+  </si>
+  <si>
+    <t>Jiuhygt68</t>
+  </si>
+  <si>
+    <t>Lamela</t>
+  </si>
+  <si>
+    <t>Sarabia</t>
+  </si>
+  <si>
+    <t>LamelaSarabia479n@gmail.com</t>
+  </si>
+  <si>
+    <t>maperhttre</t>
+  </si>
+  <si>
+    <t>81.28.96.212:4037</t>
+  </si>
+  <si>
+    <t>Rahano</t>
+  </si>
+  <si>
+    <t>joerahano36@gmail.com</t>
+  </si>
+  <si>
+    <t>CVBDFHrtyrtiur457</t>
+  </si>
+  <si>
+    <t>Shirley</t>
+  </si>
+  <si>
+    <t>Brinegar</t>
+  </si>
+  <si>
+    <t>shireyaberinegar546@gmail.com</t>
+  </si>
+  <si>
+    <t>GTFCkoiu36</t>
+  </si>
+  <si>
+    <t>81.28.96.137:4030</t>
+  </si>
+  <si>
+    <t>Teresa</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Teresascott78954@gmail.com</t>
+  </si>
+  <si>
+    <t>sdythjhwhtjnsdsd</t>
+  </si>
+  <si>
+    <t>81.28.96.147:4017</t>
+  </si>
+  <si>
+    <t>Noel</t>
+  </si>
+  <si>
+    <t>Demirir</t>
+  </si>
+  <si>
+    <t>noeldemirir86@gmail.com</t>
+  </si>
+  <si>
+    <t>M4hF09KH4K</t>
+  </si>
+  <si>
+    <t>81.28.96.212:4035</t>
+  </si>
+  <si>
+    <t>Michele</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>MicheleGeorge56354@gmail.com</t>
+  </si>
+  <si>
+    <t>Htarthjiqwdsds</t>
+  </si>
+  <si>
+    <t>23.94.96.119:3140</t>
+  </si>
+  <si>
+    <t>Rueben</t>
+  </si>
+  <si>
+    <t>Fannin</t>
+  </si>
+  <si>
+    <t>ruebenfannin777@gmail.com</t>
+  </si>
+  <si>
+    <t>Gasytui10</t>
+  </si>
+  <si>
+    <t>81.28.96.137:4026</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Lawsone</t>
+  </si>
+  <si>
+    <t>kellylawsone5@gmail.com</t>
+  </si>
+  <si>
+    <t>sbzqmtfngv</t>
+  </si>
+  <si>
+    <t>Tiffany</t>
+  </si>
+  <si>
+    <t>Perkins</t>
+  </si>
+  <si>
+    <t>tp548710@gmail.com</t>
+  </si>
+  <si>
+    <t>CXFG@$@$^&amp;#%*454G</t>
+  </si>
+  <si>
+    <t>81.28.96.137:4009</t>
+  </si>
+  <si>
+    <t>Sherry</t>
+  </si>
+  <si>
+    <t>Romero</t>
+  </si>
+  <si>
+    <t>SherryRomero56534@gmail.com</t>
+  </si>
+  <si>
+    <t>Hd4tr5q3rASSEggd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +940,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -447,7 +1134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -562,6 +1249,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -607,8 +1309,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -930,177 +1636,1189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A1:G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" ht="40.799999999999997" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="54" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="54" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="54" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="54" thickBot="1">
+      <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
+    <row r="7" spans="1:7" ht="54" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="54" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="54" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="40.799999999999997" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="54" thickBot="1">
+      <c r="A11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="40.799999999999997" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="40.799999999999997" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="40.799999999999997" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="54" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="40.799999999999997" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="54" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="40.799999999999997" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
+    <row r="19" spans="1:7" ht="40.799999999999997" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="40.799999999999997" thickBot="1">
+      <c r="A20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="54" thickBot="1">
+      <c r="A21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="40.799999999999997" thickBot="1">
+      <c r="A22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="54" thickBot="1">
+      <c r="A23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="40.799999999999997" thickBot="1">
+      <c r="A24" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="54" thickBot="1">
+      <c r="A25" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="54" thickBot="1">
+      <c r="A26" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="40.799999999999997" thickBot="1">
+      <c r="A27" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="54" thickBot="1">
+      <c r="A28" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="40.799999999999997" thickBot="1">
+      <c r="A29" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G29" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="30" spans="1:7" ht="54" thickBot="1">
+      <c r="A30" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="40.799999999999997" thickBot="1">
+      <c r="A31" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="40.799999999999997" thickBot="1">
+      <c r="A32" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="40.799999999999997" thickBot="1">
+      <c r="A33" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="G33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="34" spans="1:7" ht="54" thickBot="1">
+      <c r="A34" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G34" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
+    <row r="35" spans="1:7" ht="40.799999999999997" thickBot="1">
+      <c r="A35" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="40.799999999999997" thickBot="1">
+      <c r="A36" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G36" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="40.799999999999997" thickBot="1">
+      <c r="A37" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="40.799999999999997" thickBot="1">
+      <c r="A38" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="54" thickBot="1">
+      <c r="A39" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="54" thickBot="1">
+      <c r="A40" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="54" thickBot="1">
+      <c r="A41" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="54" thickBot="1">
+      <c r="A42" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="40.799999999999997" thickBot="1">
+      <c r="A43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G43" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="44" spans="1:7" ht="54" thickBot="1">
+      <c r="A44" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
+    </row>
+    <row r="45" spans="1:7" ht="54" thickBot="1">
+      <c r="A45" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="40.799999999999997" thickBot="1">
+      <c r="A46" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="54" thickBot="1">
+      <c r="A47" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="54" thickBot="1">
+      <c r="A48" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="40.799999999999997" thickBot="1">
+      <c r="A49" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="40.799999999999997" thickBot="1">
+      <c r="A50" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="54" thickBot="1">
+      <c r="A51" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/database/group_a.xlsx
+++ b/database/group_a.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Upwork\2020\gmail_app\gmail_app\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Upwork\2020\gmail_app\gmail_app_old\gmail_app\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34200" windowHeight="11616"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34200" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="group_a" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>FIRSTFROMNAME</t>
   </si>
@@ -48,111 +48,12 @@
     <t>Julia</t>
   </si>
   <si>
-    <t>Gwen</t>
-  </si>
-  <si>
-    <t>Bramlet</t>
-  </si>
-  <si>
-    <t>gwenbramlet91@gmail.com</t>
-  </si>
-  <si>
-    <t>sadEQRbn19J!</t>
-  </si>
-  <si>
-    <t>81.28.96.101:3180</t>
-  </si>
-  <si>
-    <t>CfpdnPcSCySu2uuR</t>
-  </si>
-  <si>
-    <t>ZUSnyTjNVdyBUV8k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tori </t>
-  </si>
-  <si>
-    <t>Rayner</t>
-  </si>
-  <si>
-    <t>rayner.torix95@gmail.com</t>
-  </si>
-  <si>
-    <t>SFJVeroitg19038!</t>
-  </si>
-  <si>
-    <t>Tanya</t>
-  </si>
-  <si>
-    <t>Ivy</t>
-  </si>
-  <si>
-    <t>Tanya.Ivy12@gmail.com</t>
-  </si>
-  <si>
-    <t>ejfhIOWEF41nM9!</t>
-  </si>
-  <si>
-    <t>81.28.96.123:4006</t>
-  </si>
-  <si>
-    <t>zNrGs68zXDxanWhL</t>
-  </si>
-  <si>
-    <t>YgUekrjqk4hXS6Lj</t>
-  </si>
-  <si>
-    <t>Caitlin</t>
-  </si>
-  <si>
-    <t>Bennet</t>
-  </si>
-  <si>
-    <t>caitlinbennetservices@gmail.com</t>
-  </si>
-  <si>
-    <t>qweTGB&amp;8</t>
-  </si>
-  <si>
-    <t>81.28.96.193:55467</t>
-  </si>
-  <si>
     <t>Hab8J3yySfFTcj6P</t>
   </si>
   <si>
     <t>YpRQLYVA9eSYCQHe</t>
   </si>
   <si>
-    <t>Evelyn</t>
-  </si>
-  <si>
-    <t>Hudson</t>
-  </si>
-  <si>
-    <t>evehudsocialcircuit@gmail.com</t>
-  </si>
-  <si>
-    <t>i2owGpG1eO</t>
-  </si>
-  <si>
-    <t>81.28.96.193:10821</t>
-  </si>
-  <si>
-    <t>Tia</t>
-  </si>
-  <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>tia.jones209@gmail.com</t>
-  </si>
-  <si>
-    <t>7M8YwFrNCN677Ea</t>
-  </si>
-  <si>
-    <t>81.28.96.123:4010</t>
-  </si>
-  <si>
     <t>Laura</t>
   </si>
   <si>
@@ -205,6 +106,105 @@
   </si>
   <si>
     <t>81.28.96.193:27839</t>
+  </si>
+  <si>
+    <t>Keanu</t>
+  </si>
+  <si>
+    <t>Stroman</t>
+  </si>
+  <si>
+    <t>keanustroman@gmail.com</t>
+  </si>
+  <si>
+    <t>gjfdrtxgib</t>
+  </si>
+  <si>
+    <t>107.172.201.118:3157</t>
+  </si>
+  <si>
+    <t>c5TwLkJRL5XGgggn</t>
+  </si>
+  <si>
+    <t>J5dQQBz4qDtV5pY8</t>
+  </si>
+  <si>
+    <t>Dustin</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>troyd0130@gmail.com</t>
+  </si>
+  <si>
+    <t>scottishkaralynn@*</t>
+  </si>
+  <si>
+    <t>81.28.96.172:60635</t>
+  </si>
+  <si>
+    <t>C5q7zKS9pTP62s6Y</t>
+  </si>
+  <si>
+    <t>bGTn2ZtxYtDVuPDk</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Nielse</t>
+  </si>
+  <si>
+    <t>clarkelliotn4@gmail.com</t>
+  </si>
+  <si>
+    <t>HGLKHLHJG6756</t>
+  </si>
+  <si>
+    <t>185.14.97.67:4007</t>
+  </si>
+  <si>
+    <t>gv8LAcpSzTezftHs</t>
+  </si>
+  <si>
+    <t>bj57TYChcnBeA96C</t>
+  </si>
+  <si>
+    <t>Arnold</t>
+  </si>
+  <si>
+    <t>Coleman</t>
+  </si>
+  <si>
+    <t>arnoldcolemann@gmail.com</t>
+  </si>
+  <si>
+    <t>Jsd12Rygsdfoyrtd</t>
+  </si>
+  <si>
+    <t>81.28.96.59:65059</t>
+  </si>
+  <si>
+    <t>gQ4pFWAxZ9vBN7Qm</t>
+  </si>
+  <si>
+    <t>wS5AK5FakHAjYwfY</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>daviddouglas375849@gmail.com</t>
+  </si>
+  <si>
+    <t>ydiwfgusan</t>
+  </si>
+  <si>
+    <t>107.172.201.118:3156</t>
   </si>
 </sst>
 </file>
@@ -1042,19 +1042,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:G11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" ht="14.45" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1077,237 +1077,223 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1">
+    <row r="2" spans="1:7" ht="39.75" thickBot="1">
       <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="52.5" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="52.5" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1">
-      <c r="A4" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="52.5" thickBot="1">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="39.75" thickBot="1">
+      <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1">
-      <c r="A5" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1">
-      <c r="A6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1">
-      <c r="A7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1">
-      <c r="A8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1">
-      <c r="A10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1">
-      <c r="A11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1316,7 +1302,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1325,7 +1311,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1334,7 +1320,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1343,7 +1329,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1352,7 +1338,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1">
+    <row r="17" spans="1:7" ht="15.75" thickBot="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1361,7 +1347,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1370,7 +1356,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1379,7 +1365,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1388,7 +1374,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1397,7 +1383,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1">
+    <row r="22" spans="1:7" ht="15.75" thickBot="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1406,7 +1392,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1">
+    <row r="23" spans="1:7" ht="15.75" thickBot="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1415,7 +1401,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1">
+    <row r="24" spans="1:7" ht="15.75" thickBot="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1424,7 +1410,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1433,7 +1419,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1442,7 +1428,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1">
+    <row r="27" spans="1:7" ht="15.75" thickBot="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1451,7 +1437,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1">
+    <row r="28" spans="1:7" ht="15.75" thickBot="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1460,7 +1446,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1">
+    <row r="29" spans="1:7" ht="15.75" thickBot="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1469,7 +1455,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1">
+    <row r="30" spans="1:7" ht="15.75" thickBot="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1478,7 +1464,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1">
+    <row r="31" spans="1:7" ht="15.75" thickBot="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1487,7 +1473,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1">
+    <row r="32" spans="1:7" ht="15.75" thickBot="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1496,7 +1482,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="15" thickBot="1">
+    <row r="33" spans="1:7" ht="15.75" thickBot="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1505,7 +1491,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1">
+    <row r="34" spans="1:7" ht="15.75" thickBot="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1514,7 +1500,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1">
+    <row r="35" spans="1:7" ht="15.75" thickBot="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1523,7 +1509,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="15" thickBot="1">
+    <row r="36" spans="1:7" ht="15.75" thickBot="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1532,7 +1518,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1">
+    <row r="37" spans="1:7" ht="15.75" thickBot="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1541,7 +1527,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1">
+    <row r="38" spans="1:7" ht="15.75" thickBot="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1550,7 +1536,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1">
+    <row r="39" spans="1:7" ht="15.75" thickBot="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1559,7 +1545,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="15" thickBot="1">
+    <row r="40" spans="1:7" ht="15.75" thickBot="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1568,7 +1554,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1">
+    <row r="41" spans="1:7" ht="15.75" thickBot="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1577,7 +1563,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="15" thickBot="1">
+    <row r="42" spans="1:7" ht="15.75" thickBot="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1586,7 +1572,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="15" thickBot="1">
+    <row r="43" spans="1:7" ht="15.75" thickBot="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1595,7 +1581,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="15" thickBot="1">
+    <row r="44" spans="1:7" ht="15.75" thickBot="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1604,7 +1590,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="15" thickBot="1">
+    <row r="45" spans="1:7" ht="15.75" thickBot="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1613,7 +1599,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" ht="15" thickBot="1">
+    <row r="46" spans="1:7" ht="15.75" thickBot="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1622,7 +1608,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" ht="15" thickBot="1">
+    <row r="47" spans="1:7" ht="15.75" thickBot="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1631,7 +1617,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" ht="15" thickBot="1">
+    <row r="48" spans="1:7" ht="15.75" thickBot="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1640,7 +1626,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" ht="15" thickBot="1">
+    <row r="49" spans="1:7" ht="15.75" thickBot="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1649,7 +1635,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" ht="15" thickBot="1">
+    <row r="50" spans="1:7" ht="15.75" thickBot="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1658,15 +1644,6 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" ht="15" thickBot="1">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/group_a.xlsx
+++ b/database/group_a.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34200" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34200" windowHeight="11616"/>
   </bookViews>
   <sheets>
     <sheet name="group_a" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>FIRSTFROMNAME</t>
   </si>
@@ -42,176 +42,65 @@
     <t>PROXY_PASS</t>
   </si>
   <si>
-    <t>Turner</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Hab8J3yySfFTcj6P</t>
-  </si>
-  <si>
-    <t>YpRQLYVA9eSYCQHe</t>
-  </si>
-  <si>
-    <t>Laura</t>
-  </si>
-  <si>
-    <t>Shields</t>
-  </si>
-  <si>
-    <t>instageniuslaura93@gmail.com</t>
-  </si>
-  <si>
-    <t>RNTLPe15la83!</t>
-  </si>
-  <si>
-    <t>81.28.96.193:63762</t>
-  </si>
-  <si>
-    <t>Winston</t>
-  </si>
-  <si>
-    <t>winston.jules93@gmail.com</t>
-  </si>
-  <si>
-    <t>452DFGnfgj!</t>
-  </si>
-  <si>
-    <t>81.28.96.193:52811</t>
-  </si>
-  <si>
-    <t>Cailtlyn</t>
-  </si>
-  <si>
-    <t>Parker</t>
-  </si>
-  <si>
-    <t>caitlinparker135@gmail.com</t>
-  </si>
-  <si>
-    <t>GRLHer31ASntr8!</t>
-  </si>
-  <si>
-    <t>81.28.96.193:16600</t>
-  </si>
-  <si>
-    <t>Ella</t>
-  </si>
-  <si>
-    <t>ellaxturner96@gmail.com</t>
-  </si>
-  <si>
-    <t>44KLRGdf94!</t>
-  </si>
-  <si>
-    <t>81.28.96.193:27839</t>
-  </si>
-  <si>
-    <t>Keanu</t>
-  </si>
-  <si>
-    <t>Stroman</t>
-  </si>
-  <si>
-    <t>keanustroman@gmail.com</t>
-  </si>
-  <si>
-    <t>gjfdrtxgib</t>
-  </si>
-  <si>
-    <t>107.172.201.118:3157</t>
-  </si>
-  <si>
-    <t>c5TwLkJRL5XGgggn</t>
-  </si>
-  <si>
-    <t>J5dQQBz4qDtV5pY8</t>
-  </si>
-  <si>
-    <t>Dustin</t>
-  </si>
-  <si>
-    <t>Troy</t>
-  </si>
-  <si>
-    <t>troyd0130@gmail.com</t>
-  </si>
-  <si>
-    <t>scottishkaralynn@*</t>
-  </si>
-  <si>
-    <t>81.28.96.172:60635</t>
-  </si>
-  <si>
-    <t>C5q7zKS9pTP62s6Y</t>
-  </si>
-  <si>
-    <t>bGTn2ZtxYtDVuPDk</t>
-  </si>
-  <si>
-    <t>Clark</t>
-  </si>
-  <si>
-    <t>Nielse</t>
-  </si>
-  <si>
-    <t>clarkelliotn4@gmail.com</t>
-  </si>
-  <si>
-    <t>HGLKHLHJG6756</t>
-  </si>
-  <si>
-    <t>185.14.97.67:4007</t>
-  </si>
-  <si>
-    <t>gv8LAcpSzTezftHs</t>
-  </si>
-  <si>
-    <t>bj57TYChcnBeA96C</t>
-  </si>
-  <si>
-    <t>Arnold</t>
-  </si>
-  <si>
-    <t>Coleman</t>
-  </si>
-  <si>
-    <t>arnoldcolemann@gmail.com</t>
-  </si>
-  <si>
-    <t>Jsd12Rygsdfoyrtd</t>
-  </si>
-  <si>
-    <t>81.28.96.59:65059</t>
-  </si>
-  <si>
-    <t>gQ4pFWAxZ9vBN7Qm</t>
-  </si>
-  <si>
-    <t>wS5AK5FakHAjYwfY</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Douglas</t>
-  </si>
-  <si>
-    <t>daviddouglas375849@gmail.com</t>
-  </si>
-  <si>
-    <t>ydiwfgusan</t>
-  </si>
-  <si>
-    <t>107.172.201.118:3156</t>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Calloway</t>
+  </si>
+  <si>
+    <t>jamescalloway402@gmail.com</t>
+  </si>
+  <si>
+    <t>whiqufiogheqkdvw</t>
+  </si>
+  <si>
+    <t>185.14.97.29:4001</t>
+  </si>
+  <si>
+    <t>eVLjgYYsF64zW8Zx</t>
+  </si>
+  <si>
+    <t>gV9XKZj2J47VwkeY</t>
+  </si>
+  <si>
+    <t>Elnora</t>
+  </si>
+  <si>
+    <t>Schmitt</t>
+  </si>
+  <si>
+    <t>elnoraschmitt426@gmail.com</t>
+  </si>
+  <si>
+    <t>&amp;m2&amp;&amp;maW</t>
+  </si>
+  <si>
+    <t>23.154.81.120:38986</t>
+  </si>
+  <si>
+    <t>y7qVkXbykT7wUEH6</t>
+  </si>
+  <si>
+    <t>fAdts4NQZ9EsC5wj</t>
+  </si>
+  <si>
+    <t>Toshiko</t>
+  </si>
+  <si>
+    <t>Monahan</t>
+  </si>
+  <si>
+    <t>monahantoshiko226@gmail.com</t>
+  </si>
+  <si>
+    <t>&amp;lCLm&amp;yU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,12 +234,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -715,10 +598,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1045,604 +927,520 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.45" customHeight="1" thickBot="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39.75" thickBot="1">
-      <c r="A2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="52.5" thickBot="1">
-      <c r="A7" s="2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="52.5" thickBot="1">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="52.5" thickBot="1">
-      <c r="A9" s="2" t="s">
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="39.75" thickBot="1">
-      <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickBot="1">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" thickBot="1">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" thickBot="1">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" thickBot="1">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" thickBot="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" thickBot="1">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" thickBot="1">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" thickBot="1">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" thickBot="1">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" ht="15" thickBot="1">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" ht="15" thickBot="1">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" ht="15" thickBot="1">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" ht="15" thickBot="1">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" ht="15" thickBot="1">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" ht="15" thickBot="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" ht="15" thickBot="1">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/group_a.xlsx
+++ b/database/group_a.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>FIRSTFROMNAME</t>
   </si>
@@ -94,13 +94,34 @@
   </si>
   <si>
     <t>&amp;lCLm&amp;yU</t>
+  </si>
+  <si>
+    <t>lorettabowers06@gmail.com</t>
+  </si>
+  <si>
+    <t>Oruyr1TRgsErtMb</t>
+  </si>
+  <si>
+    <t>81.28.96.125:18156</t>
+  </si>
+  <si>
+    <t>g72j7SmGDfQ6DsmZ</t>
+  </si>
+  <si>
+    <t>2HaMyW78WzQb224X</t>
+  </si>
+  <si>
+    <t>Bowers</t>
+  </si>
+  <si>
+    <t>Loretta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +261,11 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -598,11 +624,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -927,11 +954,13 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="32.6640625" customWidth="1"/>
   </cols>
@@ -1005,7 +1034,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1029,13 +1058,27 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1">
       <c r="A6" s="1"/>
@@ -1444,5 +1487,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/database/group_a.xlsx
+++ b/database/group_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Upwork\2020\gmail_app\gmail_app_old\gmail_app\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Upwork\2020\gmail_app\gmail_app_old\gmail_app_old\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="group_a" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>FIRSTFROMNAME</t>
   </si>
@@ -63,58 +63,25 @@
     <t>gV9XKZj2J47VwkeY</t>
   </si>
   <si>
-    <t>Elnora</t>
-  </si>
-  <si>
-    <t>Schmitt</t>
-  </si>
-  <si>
-    <t>elnoraschmitt426@gmail.com</t>
-  </si>
-  <si>
-    <t>&amp;m2&amp;&amp;maW</t>
-  </si>
-  <si>
-    <t>23.154.81.120:38986</t>
-  </si>
-  <si>
-    <t>y7qVkXbykT7wUEH6</t>
-  </si>
-  <si>
-    <t>fAdts4NQZ9EsC5wj</t>
-  </si>
-  <si>
-    <t>Toshiko</t>
-  </si>
-  <si>
-    <t>Monahan</t>
-  </si>
-  <si>
-    <t>monahantoshiko226@gmail.com</t>
-  </si>
-  <si>
-    <t>&amp;lCLm&amp;yU</t>
-  </si>
-  <si>
-    <t>lorettabowers06@gmail.com</t>
-  </si>
-  <si>
-    <t>Oruyr1TRgsErtMb</t>
-  </si>
-  <si>
-    <t>81.28.96.125:18156</t>
-  </si>
-  <si>
-    <t>g72j7SmGDfQ6DsmZ</t>
-  </si>
-  <si>
-    <t>2HaMyW78WzQb224X</t>
-  </si>
-  <si>
-    <t>Bowers</t>
-  </si>
-  <si>
-    <t>Loretta</t>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Gibbons</t>
+  </si>
+  <si>
+    <t>0101dave.gibbons22@gmail.com</t>
+  </si>
+  <si>
+    <t>wlmgbnezgtgglefg</t>
+  </si>
+  <si>
+    <t>81.28.96.131:58065</t>
+  </si>
+  <si>
+    <t>Ks4BcUQh43z8AjTF</t>
+  </si>
+  <si>
+    <t>E44dyaN4k3F3MPkH</t>
   </si>
 </sst>
 </file>
@@ -257,15 +224,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -626,10 +594,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -951,542 +919,520 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" ht="15" thickBot="1">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" ht="15" thickBot="1">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
+    <row r="4" spans="1:7" ht="15" thickBot="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1">
-      <c r="A5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="15" thickBot="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" ht="15" thickBot="1">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="15" thickBot="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" ht="15" thickBot="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" ht="15" thickBot="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" ht="15" thickBot="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" ht="15" thickBot="1">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" ht="15" thickBot="1">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" ht="15" thickBot="1">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" ht="15" thickBot="1">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" ht="15" thickBot="1">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" ht="15" thickBot="1">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" ht="15" thickBot="1">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" ht="15" thickBot="1">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" ht="15" thickBot="1">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" ht="15" thickBot="1">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" ht="15" thickBot="1">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" ht="15" thickBot="1">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7" ht="15" thickBot="1">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:7" ht="15" thickBot="1">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7" ht="15" thickBot="1">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
     </row>
     <row r="50" spans="1:7" ht="15" thickBot="1">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" ht="15" thickBot="1">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/database/group_a.xlsx
+++ b/database/group_a.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="355">
   <si>
     <t>FIRSTFROMNAME</t>
   </si>
@@ -42,53 +42,1055 @@
     <t>PROXY_PASS</t>
   </si>
   <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Calloway</t>
-  </si>
-  <si>
-    <t>jamescalloway402@gmail.com</t>
-  </si>
-  <si>
-    <t>whiqufiogheqkdvw</t>
-  </si>
-  <si>
-    <t>185.14.97.29:4001</t>
-  </si>
-  <si>
-    <t>eVLjgYYsF64zW8Zx</t>
-  </si>
-  <si>
-    <t>gV9XKZj2J47VwkeY</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Gibbons</t>
-  </si>
-  <si>
-    <t>0101dave.gibbons22@gmail.com</t>
-  </si>
-  <si>
-    <t>wlmgbnezgtgglefg</t>
-  </si>
-  <si>
-    <t>81.28.96.131:58065</t>
-  </si>
-  <si>
-    <t>Ks4BcUQh43z8AjTF</t>
-  </si>
-  <si>
-    <t>E44dyaN4k3F3MPkH</t>
+    <t>Catrice</t>
+  </si>
+  <si>
+    <t>Kimball</t>
+  </si>
+  <si>
+    <t>catricekimball351@gmail.com</t>
+  </si>
+  <si>
+    <t>juodkinerrugvgfc</t>
+  </si>
+  <si>
+    <t>81.28.96.145:4001</t>
+  </si>
+  <si>
+    <t>KpbXsNM7RkxsXfWr</t>
+  </si>
+  <si>
+    <t>JYTtYbv6hPvJSqZc</t>
+  </si>
+  <si>
+    <t>Xuan</t>
+  </si>
+  <si>
+    <t>Warren</t>
+  </si>
+  <si>
+    <t>warrenxuan@gmail.com</t>
+  </si>
+  <si>
+    <t>lepmstwrprnzqdzi</t>
+  </si>
+  <si>
+    <t>81.28.96.80:4007</t>
+  </si>
+  <si>
+    <t>ufp4gZaYukjRWNGH</t>
+  </si>
+  <si>
+    <t>7hyt5TpfptCKFgb5</t>
+  </si>
+  <si>
+    <t>Chantal</t>
+  </si>
+  <si>
+    <t>Horvath</t>
+  </si>
+  <si>
+    <t>ch4460165@gmail.com</t>
+  </si>
+  <si>
+    <t>eynkyqcaelpympei</t>
+  </si>
+  <si>
+    <t>194.32.107.161:59028</t>
+  </si>
+  <si>
+    <t>rXdE4qNXsXXwpyvD</t>
+  </si>
+  <si>
+    <t>qD8wKTgE9UEGa4BH</t>
+  </si>
+  <si>
+    <t>Nydia</t>
+  </si>
+  <si>
+    <t>Berman</t>
+  </si>
+  <si>
+    <t>bermannydia@gmail.com</t>
+  </si>
+  <si>
+    <t>vaxdtxnkxtvnngwz</t>
+  </si>
+  <si>
+    <t>185.24.233.182:4010</t>
+  </si>
+  <si>
+    <t>8GbKtEpRUr29jbg5</t>
+  </si>
+  <si>
+    <t>TMwprA4NyqSKxc6V</t>
+  </si>
+  <si>
+    <t>Digna</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>nelsondigna95@gmail.com</t>
+  </si>
+  <si>
+    <t>hotcpbjzfcijkrot</t>
+  </si>
+  <si>
+    <t>23.94.96.119:3168</t>
+  </si>
+  <si>
+    <t>6TFkNpfJJP2mVJ27</t>
+  </si>
+  <si>
+    <t>98hyShw5PC9D2vgw</t>
+  </si>
+  <si>
+    <t>Alyse</t>
+  </si>
+  <si>
+    <t>Clayton</t>
+  </si>
+  <si>
+    <t>alyse865480clayton865480@gmail.com</t>
+  </si>
+  <si>
+    <t>usfyuswuaeuounxs</t>
+  </si>
+  <si>
+    <t>185.24.233.182:4003</t>
+  </si>
+  <si>
+    <t>Gaylene</t>
+  </si>
+  <si>
+    <t>Barr</t>
+  </si>
+  <si>
+    <t>gaylenebarr52@gmail.com</t>
+  </si>
+  <si>
+    <t>orgmqkejvebxactt</t>
+  </si>
+  <si>
+    <t>185.24.233.182:4015</t>
+  </si>
+  <si>
+    <t>Cammie</t>
+  </si>
+  <si>
+    <t>Robbins</t>
+  </si>
+  <si>
+    <t>cammie554076robbins554076@gmail.com</t>
+  </si>
+  <si>
+    <t>mbcxpjbajlgffcmw</t>
+  </si>
+  <si>
+    <t>194.32.107.208:4031</t>
+  </si>
+  <si>
+    <t>PLacRXQmA8XV277b</t>
+  </si>
+  <si>
+    <t>t475U4Qqj7b9CbB2</t>
+  </si>
+  <si>
+    <t>Kanesha</t>
+  </si>
+  <si>
+    <t>Allison</t>
+  </si>
+  <si>
+    <t>allisonkanesha97@gmail.com</t>
+  </si>
+  <si>
+    <t>doipwinairzaupsa</t>
+  </si>
+  <si>
+    <t>81.28.96.80:4008</t>
+  </si>
+  <si>
+    <t>Lael</t>
+  </si>
+  <si>
+    <t>Pugh</t>
+  </si>
+  <si>
+    <t>pughlael052@gmail.com</t>
+  </si>
+  <si>
+    <t>etjyovkdcvidbnzn</t>
+  </si>
+  <si>
+    <t>81.28.96.80:4011</t>
+  </si>
+  <si>
+    <t>Eboni</t>
+  </si>
+  <si>
+    <t>Sherwood</t>
+  </si>
+  <si>
+    <t>ebonisherwood39@gmail.com</t>
+  </si>
+  <si>
+    <t>rlmkqkqonvncgqvh</t>
+  </si>
+  <si>
+    <t>185.24.233.182:4001</t>
+  </si>
+  <si>
+    <t>Kisha</t>
+  </si>
+  <si>
+    <t>Gauthier</t>
+  </si>
+  <si>
+    <t>kishagauthier@gmail.com</t>
+  </si>
+  <si>
+    <t>rrlgyerlfwhtojbm</t>
+  </si>
+  <si>
+    <t>103.144.176.238:4007</t>
+  </si>
+  <si>
+    <t>ZdxNXr4cqG5Uu2d5</t>
+  </si>
+  <si>
+    <t>PpeYYaB7qaBKmcGB</t>
+  </si>
+  <si>
+    <t>Trang</t>
+  </si>
+  <si>
+    <t>Mckinney</t>
+  </si>
+  <si>
+    <t>trangmckinney@gmail.com</t>
+  </si>
+  <si>
+    <t>iypxefmwyqvshknz</t>
+  </si>
+  <si>
+    <t>194.32.107.51:4000</t>
+  </si>
+  <si>
+    <t>S6UxGStsBGjNnZ9c</t>
+  </si>
+  <si>
+    <t>HhL5TD4YwYRDZJFz</t>
+  </si>
+  <si>
+    <t>Janeen</t>
+  </si>
+  <si>
+    <t>Crowley</t>
+  </si>
+  <si>
+    <t>janeencrowley2@gmail.com</t>
+  </si>
+  <si>
+    <t>dztblnmehnavkvxg</t>
+  </si>
+  <si>
+    <t>194.32.107.51:4005</t>
+  </si>
+  <si>
+    <t>Michiko</t>
+  </si>
+  <si>
+    <t>Newcomb</t>
+  </si>
+  <si>
+    <t>newcombmichiko@gmail.com</t>
+  </si>
+  <si>
+    <t>yvwwsuxwtxtuvwsy</t>
+  </si>
+  <si>
+    <t>23.152.226.105:4013</t>
+  </si>
+  <si>
+    <t>rSj6CuG46evvfk5c</t>
+  </si>
+  <si>
+    <t>uBB2NE8sLRkRfmc7</t>
+  </si>
+  <si>
+    <t>Shanelle</t>
+  </si>
+  <si>
+    <t>Dyer</t>
+  </si>
+  <si>
+    <t>dyershanelle@gmail.com</t>
+  </si>
+  <si>
+    <t>oznwniphdhdmlosw</t>
+  </si>
+  <si>
+    <t>194.32.107.85:4033</t>
+  </si>
+  <si>
+    <t>Am4qH9WTM5yr9NaY</t>
+  </si>
+  <si>
+    <t>8NrJvRAujAmcvtq7</t>
+  </si>
+  <si>
+    <t>Gwenda</t>
+  </si>
+  <si>
+    <t>Hayes</t>
+  </si>
+  <si>
+    <t>gwenda767321hayes767321@gmail.com</t>
+  </si>
+  <si>
+    <t>uxgbmwjpwqiivqzj</t>
+  </si>
+  <si>
+    <t>Vanessa</t>
+  </si>
+  <si>
+    <t>Costa</t>
+  </si>
+  <si>
+    <t>vanessa780734costa780734@gmail.com</t>
+  </si>
+  <si>
+    <t>ymmumcppmqzzntxu</t>
+  </si>
+  <si>
+    <t>194.32.107.85:4034</t>
+  </si>
+  <si>
+    <t>Augustina</t>
+  </si>
+  <si>
+    <t>Rector</t>
+  </si>
+  <si>
+    <t>augustinarector@gmail.com</t>
+  </si>
+  <si>
+    <t>jghlsifchesnomxm</t>
+  </si>
+  <si>
+    <t>81.28.96.144:8595</t>
+  </si>
+  <si>
+    <t>QLkhv5HXmsbU8qNU</t>
+  </si>
+  <si>
+    <t>Zx42Jx5vJ2ekAWWT</t>
+  </si>
+  <si>
+    <t>Mana</t>
+  </si>
+  <si>
+    <t>Carpenter</t>
+  </si>
+  <si>
+    <t>manacarpenter349@gmail.com</t>
+  </si>
+  <si>
+    <t>fgrxuwxhtiihutzx</t>
+  </si>
+  <si>
+    <t>81.28.96.145:4004</t>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
+  <si>
+    <t>Pitts</t>
+  </si>
+  <si>
+    <t>americapitts65@gmail.com</t>
+  </si>
+  <si>
+    <t>czqrspfpliqbrusg</t>
+  </si>
+  <si>
+    <t>Mei</t>
+  </si>
+  <si>
+    <t>Deaton</t>
+  </si>
+  <si>
+    <t>deatonmei321@gmail.com</t>
+  </si>
+  <si>
+    <t>ykzhkojygnksptuf</t>
+  </si>
+  <si>
+    <t>23.94.96.119:3169</t>
+  </si>
+  <si>
+    <t>Eleonora</t>
+  </si>
+  <si>
+    <t>Compton</t>
+  </si>
+  <si>
+    <t>ec3170717@gmail.com</t>
+  </si>
+  <si>
+    <t>libracoolyyjxbte</t>
+  </si>
+  <si>
+    <t>Alicia</t>
+  </si>
+  <si>
+    <t>Dickinson</t>
+  </si>
+  <si>
+    <t>dickinsonalicia6@gmail.com</t>
+  </si>
+  <si>
+    <t>mfgmwfzaushxkrtl</t>
+  </si>
+  <si>
+    <t>194.32.107.208:4032</t>
+  </si>
+  <si>
+    <t>Miranda</t>
+  </si>
+  <si>
+    <t>Driscoll</t>
+  </si>
+  <si>
+    <t>driscollmiranda7@gmail.com</t>
+  </si>
+  <si>
+    <t>kjylosuviokteirs</t>
+  </si>
+  <si>
+    <t>Eveline</t>
+  </si>
+  <si>
+    <t>Perry</t>
+  </si>
+  <si>
+    <t>evelineperry913@gmail.com</t>
+  </si>
+  <si>
+    <t>ebkkgvjymdtdhwrx</t>
+  </si>
+  <si>
+    <t>185.24.233.182:4004</t>
+  </si>
+  <si>
+    <t>Amiee</t>
+  </si>
+  <si>
+    <t>Callahan</t>
+  </si>
+  <si>
+    <t>amieecallahan2@gmail.com</t>
+  </si>
+  <si>
+    <t>oyzrnmicawpueiio</t>
+  </si>
+  <si>
+    <t>194.32.107.51:4003</t>
+  </si>
+  <si>
+    <t>Hildegard</t>
+  </si>
+  <si>
+    <t>Harding</t>
+  </si>
+  <si>
+    <t>hardinghildegard@gmail.com</t>
+  </si>
+  <si>
+    <t>jwdmupxurhssqlnq</t>
+  </si>
+  <si>
+    <t>Britt</t>
+  </si>
+  <si>
+    <t>Hanks</t>
+  </si>
+  <si>
+    <t>britt277384hanks277384@gmail.com</t>
+  </si>
+  <si>
+    <t>pkxvyciohvrcyvln</t>
+  </si>
+  <si>
+    <t>Dominque</t>
+  </si>
+  <si>
+    <t>Coyle</t>
+  </si>
+  <si>
+    <t>coyledominque371@gmail.com</t>
+  </si>
+  <si>
+    <t>xttklvpuptzmlkdj</t>
+  </si>
+  <si>
+    <t>185.24.233.182:4013</t>
+  </si>
+  <si>
+    <t>Shavon</t>
+  </si>
+  <si>
+    <t>Foss</t>
+  </si>
+  <si>
+    <t>fshavon9@gmail.com</t>
+  </si>
+  <si>
+    <t>cfemdnqcnznmkhcu</t>
+  </si>
+  <si>
+    <t>185.24.233.182:4011</t>
+  </si>
+  <si>
+    <t>Shawnta</t>
+  </si>
+  <si>
+    <t>Rowell</t>
+  </si>
+  <si>
+    <t>shawnta656165rowell656165@gmail.com</t>
+  </si>
+  <si>
+    <t>lxfwmodermgnekqg</t>
+  </si>
+  <si>
+    <t>81.28.96.145:4002</t>
+  </si>
+  <si>
+    <t>Rikki</t>
+  </si>
+  <si>
+    <t>Shelley</t>
+  </si>
+  <si>
+    <t>rikkishelley66@gmail.com</t>
+  </si>
+  <si>
+    <t>fqpqeojdrsimzelm</t>
+  </si>
+  <si>
+    <t>185.24.233.182:4002</t>
+  </si>
+  <si>
+    <t>Shenika</t>
+  </si>
+  <si>
+    <t>Blanton</t>
+  </si>
+  <si>
+    <t>shenikablanton85@gmail.com</t>
+  </si>
+  <si>
+    <t>ywvsgeanszxnovna</t>
+  </si>
+  <si>
+    <t>Man</t>
+  </si>
+  <si>
+    <t>Hewitt</t>
+  </si>
+  <si>
+    <t>manhewitt301@gmail.com</t>
+  </si>
+  <si>
+    <t>hmflejdwgtpxlmzl</t>
+  </si>
+  <si>
+    <t>Lauretta</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>readl2810@gmail.com</t>
+  </si>
+  <si>
+    <t>mhoiaswbrdvhaerv</t>
+  </si>
+  <si>
+    <t>Latricia</t>
+  </si>
+  <si>
+    <t>Yeager</t>
+  </si>
+  <si>
+    <t>latriciay373@gmail.com</t>
+  </si>
+  <si>
+    <t>hpddxrneakczaqrb</t>
+  </si>
+  <si>
+    <t>Kira</t>
+  </si>
+  <si>
+    <t>Kearney</t>
+  </si>
+  <si>
+    <t>kearneykira733@gmail.com</t>
+  </si>
+  <si>
+    <t>nzroamgmlctkxckg</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Hoskins</t>
+  </si>
+  <si>
+    <t>hoskinsj787@gmail.com</t>
+  </si>
+  <si>
+    <t>vtunjpfqdesrlmsg</t>
+  </si>
+  <si>
+    <t>Elwanda</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>elwandalee81@gmail.com</t>
+  </si>
+  <si>
+    <t>elivsfxecsxihkcy</t>
+  </si>
+  <si>
+    <t>103.144.176.25:4000</t>
+  </si>
+  <si>
+    <t>7rcmKcMRkAx4NgzX</t>
+  </si>
+  <si>
+    <t>sGVYb9mGA92MZ9TQ</t>
+  </si>
+  <si>
+    <t>Felicidad</t>
+  </si>
+  <si>
+    <t>Mccabe</t>
+  </si>
+  <si>
+    <t>mccabefelicidad@gmail.com</t>
+  </si>
+  <si>
+    <t>sqmdwvqslcbtyiwj</t>
+  </si>
+  <si>
+    <t>81.28.96.147:4037</t>
+  </si>
+  <si>
+    <t>3kJnrnp9pLc5eW64</t>
+  </si>
+  <si>
+    <t>55qcuaAF6KsJzYp8</t>
+  </si>
+  <si>
+    <t>Albert</t>
+  </si>
+  <si>
+    <t>Fulton</t>
+  </si>
+  <si>
+    <t>fultonalbert1@gmail.com</t>
+  </si>
+  <si>
+    <t>qquakkwzljcnduul</t>
+  </si>
+  <si>
+    <t>Nu</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>lnu94846@gmail.com</t>
+  </si>
+  <si>
+    <t>ofkwarirnjxtmxxc</t>
+  </si>
+  <si>
+    <t>81.28.96.145:4003</t>
+  </si>
+  <si>
+    <t>Leesa</t>
+  </si>
+  <si>
+    <t>Summers</t>
+  </si>
+  <si>
+    <t>sleesa675@gmail.com</t>
+  </si>
+  <si>
+    <t>rzbjeqwfckvfrucf</t>
+  </si>
+  <si>
+    <t>81.28.96.145:4000</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Storey</t>
+  </si>
+  <si>
+    <t>storeylaura638@gmail.com</t>
+  </si>
+  <si>
+    <t>dtvthwbxuoqyhzvh</t>
+  </si>
+  <si>
+    <t>194.32.107.161:35957</t>
+  </si>
+  <si>
+    <t>Sixta</t>
+  </si>
+  <si>
+    <t>Larson</t>
+  </si>
+  <si>
+    <t>sixta2895@gmail.com</t>
+  </si>
+  <si>
+    <t>mqwovrbcpxfujqws</t>
+  </si>
+  <si>
+    <t>Jenice</t>
+  </si>
+  <si>
+    <t>Stephens</t>
+  </si>
+  <si>
+    <t>jenice140790stephens140790@gmail.com</t>
+  </si>
+  <si>
+    <t>apwfvtyuzgzvrlsw</t>
+  </si>
+  <si>
+    <t>Pinkie</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>callpinkie9@gmail.com</t>
+  </si>
+  <si>
+    <t>sxipdwzqqkeroolb</t>
+  </si>
+  <si>
+    <t>Lenita</t>
+  </si>
+  <si>
+    <t>Fernandez</t>
+  </si>
+  <si>
+    <t>lenitaf11@gmail.com</t>
+  </si>
+  <si>
+    <t>vttwzecuwtllarxt</t>
+  </si>
+  <si>
+    <t>Loise</t>
+  </si>
+  <si>
+    <t>Savage</t>
+  </si>
+  <si>
+    <t>loisesavage633@gmail.com</t>
+  </si>
+  <si>
+    <t>ynnkdenaaxjzedtf</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Platt</t>
+  </si>
+  <si>
+    <t>john33221platt33221@gmail.com</t>
+  </si>
+  <si>
+    <t>pqpdslxkpxwhvejf</t>
+  </si>
+  <si>
+    <t>Mistie</t>
+  </si>
+  <si>
+    <t>Carrier</t>
+  </si>
+  <si>
+    <t>mistiecarrier@gmail.com</t>
+  </si>
+  <si>
+    <t>zzrotbtwikfzulxh</t>
+  </si>
+  <si>
+    <t>Scarlett</t>
+  </si>
+  <si>
+    <t>Hay</t>
+  </si>
+  <si>
+    <t>hay77876@gmail.com</t>
+  </si>
+  <si>
+    <t>txdtqhhqlubfrigq</t>
+  </si>
+  <si>
+    <t>Gwyneth</t>
+  </si>
+  <si>
+    <t>Goss</t>
+  </si>
+  <si>
+    <t>gossgwyneth962@gmail.com</t>
+  </si>
+  <si>
+    <t>pfbylmcuxlvmcvsc</t>
+  </si>
+  <si>
+    <t>Elease</t>
+  </si>
+  <si>
+    <t>Snodgrass</t>
+  </si>
+  <si>
+    <t>eleasesnodgrass@gmail.com</t>
+  </si>
+  <si>
+    <t>sottfjidiebtmctx</t>
+  </si>
+  <si>
+    <t>Anh</t>
+  </si>
+  <si>
+    <t>Hart</t>
+  </si>
+  <si>
+    <t>ahart2837@gmail.com</t>
+  </si>
+  <si>
+    <t>qqhjhlvjiytmiybc</t>
+  </si>
+  <si>
+    <t>194.32.107.51:4006</t>
+  </si>
+  <si>
+    <t>Tempie</t>
+  </si>
+  <si>
+    <t>Downs</t>
+  </si>
+  <si>
+    <t>tempiedowns9@gmail.com</t>
+  </si>
+  <si>
+    <t>bkkfsccscajspgxo</t>
+  </si>
+  <si>
+    <t>Gretchen</t>
+  </si>
+  <si>
+    <t>Kane</t>
+  </si>
+  <si>
+    <t>gkane748@gmail.com</t>
+  </si>
+  <si>
+    <t>uthjrbsvrnztxaal</t>
+  </si>
+  <si>
+    <t>Tambra</t>
+  </si>
+  <si>
+    <t>Belanger</t>
+  </si>
+  <si>
+    <t>belangertambra515@gmail.com</t>
+  </si>
+  <si>
+    <t>uycvvkodayhdmovc</t>
+  </si>
+  <si>
+    <t>194.32.107.51:4001</t>
+  </si>
+  <si>
+    <t>Raina</t>
+  </si>
+  <si>
+    <t>Grubb</t>
+  </si>
+  <si>
+    <t>grubbraina@gmail.com</t>
+  </si>
+  <si>
+    <t>inyuermszxgchwvp</t>
+  </si>
+  <si>
+    <t>103.144.176.25:4001</t>
+  </si>
+  <si>
+    <t>Roxy</t>
+  </si>
+  <si>
+    <t>Strauss</t>
+  </si>
+  <si>
+    <t>roxy48338strauss48338@gmail.com</t>
+  </si>
+  <si>
+    <t>mxoznavmnwbzxnsh</t>
+  </si>
+  <si>
+    <t>Cora</t>
+  </si>
+  <si>
+    <t>Raymond</t>
+  </si>
+  <si>
+    <t>raymondcora90@gmail.com</t>
+  </si>
+  <si>
+    <t>hervlxtnurzsjagm</t>
+  </si>
+  <si>
+    <t>Daine</t>
+  </si>
+  <si>
+    <t>Dodge</t>
+  </si>
+  <si>
+    <t>dodgedaine@gmail.com</t>
+  </si>
+  <si>
+    <t>mokxcrdtuoujcjbl</t>
+  </si>
+  <si>
+    <t>Demetrius</t>
+  </si>
+  <si>
+    <t>Joyce</t>
+  </si>
+  <si>
+    <t>joycedemetrius368@gmail.com</t>
+  </si>
+  <si>
+    <t>nwfdsesrqamktmtl</t>
+  </si>
+  <si>
+    <t>185.24.233.182:4014</t>
+  </si>
+  <si>
+    <t>Fredia</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>frediapower@gmail.com</t>
+  </si>
+  <si>
+    <t>jknlfhjttvbqthjm</t>
+  </si>
+  <si>
+    <t>103.144.176.25:4002</t>
+  </si>
+  <si>
+    <t>Hilaria</t>
+  </si>
+  <si>
+    <t>Willard</t>
+  </si>
+  <si>
+    <t>willardhilaria545@gmail.com</t>
+  </si>
+  <si>
+    <t>qkkfxelxtlgujpwb</t>
+  </si>
+  <si>
+    <t>Lorinda</t>
+  </si>
+  <si>
+    <t>Connor</t>
+  </si>
+  <si>
+    <t>connorlorinda932@gmail.com</t>
+  </si>
+  <si>
+    <t>hchxsuzppalufyib</t>
+  </si>
+  <si>
+    <t>Tania</t>
+  </si>
+  <si>
+    <t>Vaughan</t>
+  </si>
+  <si>
+    <t>vaughant649@gmail.com</t>
+  </si>
+  <si>
+    <t>lcnrjfmpddhdzeru</t>
+  </si>
+  <si>
+    <t>Antonette</t>
+  </si>
+  <si>
+    <t>Tuttle</t>
+  </si>
+  <si>
+    <t>tuttleantonette@gmail.com</t>
+  </si>
+  <si>
+    <t>yaabgvfhzoefvitd</t>
+  </si>
+  <si>
+    <t>185.24.233.182:4012</t>
+  </si>
+  <si>
+    <t>Mahalia</t>
+  </si>
+  <si>
+    <t>Crouch</t>
+  </si>
+  <si>
+    <t>mahaliacrouch@gmail.com</t>
+  </si>
+  <si>
+    <t>uovkqybtkkwwkgyh</t>
+  </si>
+  <si>
+    <t>Lacresha</t>
+  </si>
+  <si>
+    <t>Knott</t>
+  </si>
+  <si>
+    <t>knottlacresha7@gmail.com</t>
+  </si>
+  <si>
+    <t>soyhhpendklfukwu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,18 +1224,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -417,7 +1407,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -532,21 +1522,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -592,12 +1567,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -919,518 +1890,1669 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:G3"/>
+      <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" ht="15" thickBot="1">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" ht="15" thickBot="1">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" ht="15" thickBot="1">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" ht="15" thickBot="1">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" ht="15" thickBot="1">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" ht="15" thickBot="1">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" ht="15" thickBot="1">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" ht="15" thickBot="1">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7" ht="15" thickBot="1">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" ht="15" thickBot="1">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" ht="15" thickBot="1">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7" ht="15" thickBot="1">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:7" ht="15" thickBot="1">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" t="s">
+        <v>172</v>
+      </c>
+      <c r="F31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" t="s">
+        <v>177</v>
+      </c>
+      <c r="F32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" t="s">
+        <v>180</v>
+      </c>
+      <c r="D33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E33" t="s">
+        <v>182</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34" t="s">
+        <v>186</v>
+      </c>
+      <c r="E34" t="s">
+        <v>187</v>
+      </c>
+      <c r="F34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35" t="s">
+        <v>190</v>
+      </c>
+      <c r="D35" t="s">
+        <v>191</v>
+      </c>
+      <c r="E35" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" t="s">
+        <v>193</v>
+      </c>
+      <c r="C36" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" t="s">
+        <v>195</v>
+      </c>
+      <c r="E36" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>196</v>
+      </c>
+      <c r="B37" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" t="s">
+        <v>199</v>
+      </c>
+      <c r="E37" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>200</v>
+      </c>
+      <c r="B38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C38" t="s">
+        <v>202</v>
+      </c>
+      <c r="D38" t="s">
+        <v>203</v>
+      </c>
+      <c r="E38" t="s">
+        <v>145</v>
+      </c>
+      <c r="F38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>204</v>
+      </c>
+      <c r="B39" t="s">
+        <v>205</v>
+      </c>
+      <c r="C39" t="s">
+        <v>206</v>
+      </c>
+      <c r="D39" t="s">
+        <v>207</v>
+      </c>
+      <c r="E39" t="s">
+        <v>154</v>
+      </c>
+      <c r="F39" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" t="s">
+        <v>210</v>
+      </c>
+      <c r="D40" t="s">
+        <v>211</v>
+      </c>
+      <c r="E40" t="s">
+        <v>159</v>
+      </c>
+      <c r="F40" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C41" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" t="s">
+        <v>215</v>
+      </c>
+      <c r="E41" t="s">
+        <v>216</v>
+      </c>
+      <c r="F41" t="s">
+        <v>217</v>
+      </c>
+      <c r="G41" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>219</v>
+      </c>
+      <c r="B42" t="s">
+        <v>220</v>
+      </c>
+      <c r="C42" t="s">
+        <v>221</v>
+      </c>
+      <c r="D42" t="s">
+        <v>222</v>
+      </c>
+      <c r="E42" t="s">
+        <v>223</v>
+      </c>
+      <c r="F42" t="s">
+        <v>224</v>
+      </c>
+      <c r="G42" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>226</v>
+      </c>
+      <c r="B43" t="s">
+        <v>227</v>
+      </c>
+      <c r="C43" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43" t="s">
+        <v>229</v>
+      </c>
+      <c r="E43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>230</v>
+      </c>
+      <c r="B44" t="s">
+        <v>231</v>
+      </c>
+      <c r="C44" t="s">
+        <v>232</v>
+      </c>
+      <c r="D44" t="s">
+        <v>233</v>
+      </c>
+      <c r="E44" t="s">
+        <v>234</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>235</v>
+      </c>
+      <c r="B45" t="s">
+        <v>236</v>
+      </c>
+      <c r="C45" t="s">
+        <v>237</v>
+      </c>
+      <c r="D45" t="s">
+        <v>238</v>
+      </c>
+      <c r="E45" t="s">
+        <v>239</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>240</v>
+      </c>
+      <c r="B46" t="s">
+        <v>241</v>
+      </c>
+      <c r="C46" t="s">
+        <v>242</v>
+      </c>
+      <c r="D46" t="s">
+        <v>243</v>
+      </c>
+      <c r="E46" t="s">
+        <v>244</v>
+      </c>
+      <c r="F46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>245</v>
+      </c>
+      <c r="B47" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" t="s">
+        <v>247</v>
+      </c>
+      <c r="D47" t="s">
+        <v>248</v>
+      </c>
+      <c r="E47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B48" t="s">
+        <v>250</v>
+      </c>
+      <c r="C48" t="s">
+        <v>251</v>
+      </c>
+      <c r="D48" t="s">
+        <v>252</v>
+      </c>
+      <c r="E48" t="s">
+        <v>172</v>
+      </c>
+      <c r="F48" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>253</v>
+      </c>
+      <c r="B49" t="s">
+        <v>254</v>
+      </c>
+      <c r="C49" t="s">
+        <v>255</v>
+      </c>
+      <c r="D49" t="s">
+        <v>256</v>
+      </c>
+      <c r="E49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F49" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>257</v>
+      </c>
+      <c r="B50" t="s">
+        <v>258</v>
+      </c>
+      <c r="C50" t="s">
+        <v>259</v>
+      </c>
+      <c r="D50" t="s">
+        <v>260</v>
+      </c>
+      <c r="E50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>261</v>
+      </c>
+      <c r="B51" t="s">
+        <v>262</v>
+      </c>
+      <c r="C51" t="s">
+        <v>263</v>
+      </c>
+      <c r="D51" t="s">
+        <v>264</v>
+      </c>
+      <c r="E51" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>265</v>
+      </c>
+      <c r="B52" t="s">
+        <v>266</v>
+      </c>
+      <c r="C52" t="s">
+        <v>267</v>
+      </c>
+      <c r="D52" t="s">
+        <v>268</v>
+      </c>
+      <c r="E52" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" t="s">
+        <v>57</v>
+      </c>
+      <c r="G52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>269</v>
+      </c>
+      <c r="B53" t="s">
+        <v>270</v>
+      </c>
+      <c r="C53" t="s">
+        <v>271</v>
+      </c>
+      <c r="D53" t="s">
+        <v>272</v>
+      </c>
+      <c r="E53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>273</v>
+      </c>
+      <c r="B54" t="s">
+        <v>274</v>
+      </c>
+      <c r="C54" t="s">
+        <v>275</v>
+      </c>
+      <c r="D54" t="s">
+        <v>276</v>
+      </c>
+      <c r="E54" t="s">
+        <v>85</v>
+      </c>
+      <c r="F54" t="s">
+        <v>86</v>
+      </c>
+      <c r="G54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>277</v>
+      </c>
+      <c r="B55" t="s">
+        <v>278</v>
+      </c>
+      <c r="C55" t="s">
+        <v>279</v>
+      </c>
+      <c r="D55" t="s">
+        <v>280</v>
+      </c>
+      <c r="E55" t="s">
+        <v>154</v>
+      </c>
+      <c r="F55" t="s">
+        <v>33</v>
+      </c>
+      <c r="G55" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>281</v>
+      </c>
+      <c r="B56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C56" t="s">
+        <v>283</v>
+      </c>
+      <c r="D56" t="s">
+        <v>284</v>
+      </c>
+      <c r="E56" t="s">
+        <v>216</v>
+      </c>
+      <c r="F56" t="s">
+        <v>217</v>
+      </c>
+      <c r="G56" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>285</v>
+      </c>
+      <c r="B57" t="s">
+        <v>286</v>
+      </c>
+      <c r="C57" t="s">
+        <v>287</v>
+      </c>
+      <c r="D57" t="s">
+        <v>288</v>
+      </c>
+      <c r="E57" t="s">
+        <v>289</v>
+      </c>
+      <c r="F57" t="s">
+        <v>86</v>
+      </c>
+      <c r="G57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>290</v>
+      </c>
+      <c r="B58" t="s">
+        <v>291</v>
+      </c>
+      <c r="C58" t="s">
+        <v>292</v>
+      </c>
+      <c r="D58" t="s">
+        <v>293</v>
+      </c>
+      <c r="E58" t="s">
+        <v>234</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>294</v>
+      </c>
+      <c r="B59" t="s">
+        <v>295</v>
+      </c>
+      <c r="C59" t="s">
+        <v>296</v>
+      </c>
+      <c r="D59" t="s">
+        <v>297</v>
+      </c>
+      <c r="E59" t="s">
+        <v>115</v>
+      </c>
+      <c r="F59" t="s">
+        <v>105</v>
+      </c>
+      <c r="G59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>298</v>
+      </c>
+      <c r="B60" t="s">
+        <v>299</v>
+      </c>
+      <c r="C60" t="s">
+        <v>300</v>
+      </c>
+      <c r="D60" t="s">
+        <v>301</v>
+      </c>
+      <c r="E60" t="s">
+        <v>302</v>
+      </c>
+      <c r="F60" t="s">
+        <v>86</v>
+      </c>
+      <c r="G60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>303</v>
+      </c>
+      <c r="B61" t="s">
+        <v>304</v>
+      </c>
+      <c r="C61" t="s">
+        <v>305</v>
+      </c>
+      <c r="D61" t="s">
+        <v>306</v>
+      </c>
+      <c r="E61" t="s">
+        <v>307</v>
+      </c>
+      <c r="F61" t="s">
+        <v>217</v>
+      </c>
+      <c r="G61" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>308</v>
+      </c>
+      <c r="B62" t="s">
+        <v>309</v>
+      </c>
+      <c r="C62" t="s">
+        <v>310</v>
+      </c>
+      <c r="D62" t="s">
+        <v>311</v>
+      </c>
+      <c r="E62" t="s">
+        <v>32</v>
+      </c>
+      <c r="F62" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>312</v>
+      </c>
+      <c r="B63" t="s">
+        <v>313</v>
+      </c>
+      <c r="C63" t="s">
+        <v>314</v>
+      </c>
+      <c r="D63" t="s">
+        <v>315</v>
+      </c>
+      <c r="E63" t="s">
+        <v>127</v>
+      </c>
+      <c r="F63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>316</v>
+      </c>
+      <c r="B64" t="s">
+        <v>317</v>
+      </c>
+      <c r="C64" t="s">
+        <v>318</v>
+      </c>
+      <c r="D64" t="s">
+        <v>319</v>
+      </c>
+      <c r="E64" t="s">
+        <v>177</v>
+      </c>
+      <c r="F64" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>320</v>
+      </c>
+      <c r="B65" t="s">
+        <v>321</v>
+      </c>
+      <c r="C65" t="s">
+        <v>322</v>
+      </c>
+      <c r="D65" t="s">
+        <v>323</v>
+      </c>
+      <c r="E65" t="s">
+        <v>324</v>
+      </c>
+      <c r="F65" t="s">
+        <v>33</v>
+      </c>
+      <c r="G65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>325</v>
+      </c>
+      <c r="B66" t="s">
+        <v>326</v>
+      </c>
+      <c r="C66" t="s">
+        <v>327</v>
+      </c>
+      <c r="D66" t="s">
+        <v>328</v>
+      </c>
+      <c r="E66" t="s">
+        <v>329</v>
+      </c>
+      <c r="F66" t="s">
+        <v>217</v>
+      </c>
+      <c r="G66" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>330</v>
+      </c>
+      <c r="B67" t="s">
+        <v>331</v>
+      </c>
+      <c r="C67" t="s">
+        <v>332</v>
+      </c>
+      <c r="D67" t="s">
+        <v>333</v>
+      </c>
+      <c r="E67" t="s">
+        <v>56</v>
+      </c>
+      <c r="F67" t="s">
+        <v>57</v>
+      </c>
+      <c r="G67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>334</v>
+      </c>
+      <c r="B68" t="s">
+        <v>335</v>
+      </c>
+      <c r="C68" t="s">
+        <v>336</v>
+      </c>
+      <c r="D68" t="s">
+        <v>337</v>
+      </c>
+      <c r="E68" t="s">
+        <v>73</v>
+      </c>
+      <c r="F68" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>338</v>
+      </c>
+      <c r="B69" t="s">
+        <v>339</v>
+      </c>
+      <c r="C69" t="s">
+        <v>340</v>
+      </c>
+      <c r="D69" t="s">
+        <v>341</v>
+      </c>
+      <c r="E69" t="s">
+        <v>159</v>
+      </c>
+      <c r="F69" t="s">
+        <v>86</v>
+      </c>
+      <c r="G69" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>342</v>
+      </c>
+      <c r="B70" t="s">
+        <v>343</v>
+      </c>
+      <c r="C70" t="s">
+        <v>344</v>
+      </c>
+      <c r="D70" t="s">
+        <v>345</v>
+      </c>
+      <c r="E70" t="s">
+        <v>346</v>
+      </c>
+      <c r="F70" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>347</v>
+      </c>
+      <c r="B71" t="s">
+        <v>348</v>
+      </c>
+      <c r="C71" t="s">
+        <v>349</v>
+      </c>
+      <c r="D71" t="s">
+        <v>350</v>
+      </c>
+      <c r="E71" t="s">
+        <v>234</v>
+      </c>
+      <c r="F71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>351</v>
+      </c>
+      <c r="B72" t="s">
+        <v>352</v>
+      </c>
+      <c r="C72" t="s">
+        <v>353</v>
+      </c>
+      <c r="D72" t="s">
+        <v>354</v>
+      </c>
+      <c r="E72" t="s">
+        <v>115</v>
+      </c>
+      <c r="F72" t="s">
+        <v>105</v>
+      </c>
+      <c r="G72" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/group_a.xlsx
+++ b/database/group_a.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="360">
   <si>
     <t>FIRSTFROMNAME</t>
   </si>
@@ -42,39 +42,12 @@
     <t>PROXY_PASS</t>
   </si>
   <si>
-    <t>Catrice</t>
-  </si>
-  <si>
-    <t>Kimball</t>
-  </si>
-  <si>
-    <t>catricekimball351@gmail.com</t>
-  </si>
-  <si>
-    <t>juodkinerrugvgfc</t>
-  </si>
-  <si>
-    <t>81.28.96.145:4001</t>
-  </si>
-  <si>
     <t>KpbXsNM7RkxsXfWr</t>
   </si>
   <si>
     <t>JYTtYbv6hPvJSqZc</t>
   </si>
   <si>
-    <t>Xuan</t>
-  </si>
-  <si>
-    <t>Warren</t>
-  </si>
-  <si>
-    <t>warrenxuan@gmail.com</t>
-  </si>
-  <si>
-    <t>lepmstwrprnzqdzi</t>
-  </si>
-  <si>
     <t>81.28.96.80:4007</t>
   </si>
   <si>
@@ -1084,6 +1057,48 @@
   </si>
   <si>
     <t>soyhhpendklfukwu</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Calloway</t>
+  </si>
+  <si>
+    <t>jamescalloway402@gmail.com</t>
+  </si>
+  <si>
+    <t>whiqufiogheqkdvw</t>
+  </si>
+  <si>
+    <t>185.14.97.29:4001</t>
+  </si>
+  <si>
+    <t>eVLjgYYsF64zW8Zx</t>
+  </si>
+  <si>
+    <t>gV9XKZj2J47VwkeY</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Gibbons</t>
+  </si>
+  <si>
+    <t>0101dave.gibbons22@gmail.com</t>
+  </si>
+  <si>
+    <t>wlmgbnezgtgglefg</t>
+  </si>
+  <si>
+    <t>81.28.96.131:58065</t>
+  </si>
+  <si>
+    <t>Ks4BcUQh43z8AjTF</t>
+  </si>
+  <si>
+    <t>E44dyaN4k3F3MPkH</t>
   </si>
 </sst>
 </file>
@@ -1893,7 +1908,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD1048576"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1923,1635 +1938,1635 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>346</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>348</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>349</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>350</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>351</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>353</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>354</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>355</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>356</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>357</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>358</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F17" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F20" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G20" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C24" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C25" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B26" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C26" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C27" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D27" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E27" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C28" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D28" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B29" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C29" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D29" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B30" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D30" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E30" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F30" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G30" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B31" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C31" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D31" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E31" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B32" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C32" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D32" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E32" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B33" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C33" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D33" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E33" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B34" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C34" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D34" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E34" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B35" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C35" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D35" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E35" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B36" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C36" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D36" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E36" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B37" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C37" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D37" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E37" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F37" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G37" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B38" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C38" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D38" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E38" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B39" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C39" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D39" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E39" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B40" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C40" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D40" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E40" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F40" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B41" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C41" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D41" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E41" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F41" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="G41" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C42" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D42" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E42" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F42" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="G42" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B43" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C43" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D43" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F43" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G43" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B44" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C44" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D44" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E44" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B45" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C45" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D45" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E45" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B46" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C46" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D46" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E46" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B47" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C47" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D47" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B48" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C48" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D48" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E48" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B49" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C49" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D49" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E49" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B50" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C50" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D50" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B51" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C51" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D51" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E51" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B52" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C52" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D52" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E52" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F52" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G52" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B53" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C53" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D53" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="E53" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B54" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C54" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D54" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E54" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F54" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G54" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C55" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D55" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="E55" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B56" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C56" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D56" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E56" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F56" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="G56" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B57" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C57" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D57" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="E57" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F57" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G57" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B58" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C58" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D58" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="E58" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B59" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C59" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D59" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F59" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G59" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B60" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C60" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D60" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E60" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="F60" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G60" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B61" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C61" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D61" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="E61" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F61" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="G61" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B62" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C62" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D62" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E62" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B63" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C63" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D63" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="E63" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B64" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C64" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D64" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="E64" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B65" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C65" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D65" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E65" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B66" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C66" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D66" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E66" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F66" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="G66" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B67" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C67" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D67" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="E67" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F67" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G67" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B68" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C68" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D68" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="E68" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B69" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C69" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D69" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E69" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F69" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G69" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B70" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="C70" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D70" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="E70" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B71" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C71" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="D71" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="E71" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B72" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C72" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D72" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="E72" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F72" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G72" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/database/group_a.xlsx
+++ b/database/group_a.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>FIRSTFROMNAME</t>
   </si>
@@ -42,175 +42,73 @@
     <t>PROXY_PASS</t>
   </si>
   <si>
-    <t>Sang</t>
-  </si>
-  <si>
-    <t>Rosenfeld</t>
-  </si>
-  <si>
-    <t>rosenfeld461@gmail.com</t>
-  </si>
-  <si>
-    <t>eycbzlimngwqykhx</t>
-  </si>
-  <si>
-    <t>81.28.96.250:20963</t>
-  </si>
-  <si>
-    <t>57UvVb2LZknsYPER</t>
-  </si>
-  <si>
-    <t>DNyqSTAJ7QSCd7Yz</t>
-  </si>
-  <si>
-    <t>Jackie</t>
-  </si>
-  <si>
-    <t>Cliff</t>
-  </si>
-  <si>
-    <t>jackiecliff487@gmail.com</t>
-  </si>
-  <si>
-    <t>iblkkagvdwtnhpdy</t>
-  </si>
-  <si>
-    <t>81.28.96.101:59631</t>
-  </si>
-  <si>
-    <t>CfpdnPcSCySu2uuR</t>
-  </si>
-  <si>
-    <t>ZUSnyTjNVdyBUV8k</t>
-  </si>
-  <si>
-    <t>Sonny</t>
-  </si>
-  <si>
-    <t>Nuzzo</t>
-  </si>
-  <si>
-    <t>nuzzo5218@gmail.com</t>
-  </si>
-  <si>
-    <t>ncoujuxpyihbzfec</t>
-  </si>
-  <si>
-    <t>81.28.96.101:4415</t>
-  </si>
-  <si>
-    <t>Andy</t>
-  </si>
-  <si>
-    <t>Quinonez</t>
-  </si>
-  <si>
-    <t>aq9541459@gmail.com</t>
-  </si>
-  <si>
-    <t>prraeasuntcdglcw</t>
-  </si>
-  <si>
-    <t>193.243.189.121:4017</t>
-  </si>
-  <si>
-    <t>mR74ZTc4bmjQUq9S</t>
-  </si>
-  <si>
-    <t>DgcByqsD4FzbqNuD</t>
-  </si>
-  <si>
-    <t>Major</t>
-  </si>
-  <si>
-    <t>Blumberg</t>
-  </si>
-  <si>
-    <t>mb875869@gmail.com</t>
-  </si>
-  <si>
-    <t>yrkxjvjzagaqfxqs</t>
-  </si>
-  <si>
-    <t>81.28.96.109:62085</t>
-  </si>
-  <si>
-    <t>uqb6d57R2RtH2Qjg</t>
-  </si>
-  <si>
-    <t>sE7F3SjzS23meV9P</t>
-  </si>
-  <si>
-    <t>Brooks</t>
-  </si>
-  <si>
-    <t>Lopresti</t>
-  </si>
-  <si>
-    <t>blopresti311@gmail.com</t>
-  </si>
-  <si>
-    <t>uqmoxdsqownzqcir</t>
-  </si>
-  <si>
-    <t>81.28.96.193:16600</t>
-  </si>
-  <si>
-    <t>Hab8J3yySfFTcj6P</t>
-  </si>
-  <si>
-    <t>YpRQLYVA9eSYCQHe</t>
-  </si>
-  <si>
-    <t>Tommy</t>
-  </si>
-  <si>
-    <t>Howarth</t>
-  </si>
-  <si>
-    <t>tommyhowarth762@gmail.com</t>
-  </si>
-  <si>
-    <t>ezwsqphskhndygfq</t>
-  </si>
-  <si>
-    <t>81.28.96.193:27839</t>
-  </si>
-  <si>
-    <t>Kerry</t>
-  </si>
-  <si>
-    <t>Crook</t>
-  </si>
-  <si>
-    <t>kc3447745@gmail.com</t>
-  </si>
-  <si>
-    <t>dlgihljjpjtmmnla</t>
-  </si>
-  <si>
-    <t>81.28.96.193:52811</t>
-  </si>
-  <si>
-    <t>Ricardo</t>
-  </si>
-  <si>
-    <t>odrigueR</t>
-  </si>
-  <si>
-    <t>rodriguericardo523@gmail.com</t>
-  </si>
-  <si>
-    <t>xxpqslttgojzmlqw</t>
-  </si>
-  <si>
-    <t>81.28.96.86:58434</t>
-  </si>
-  <si>
-    <t>4yM3mWSgw89DBK6j</t>
-  </si>
-  <si>
-    <t>aPsqbFK4KcbEYzHJ</t>
+    <t>Louise</t>
+  </si>
+  <si>
+    <t>Deforge</t>
+  </si>
+  <si>
+    <t>saidunuhu579@gmail.com</t>
+  </si>
+  <si>
+    <t>ujemlxfzbgwnkzpd</t>
+  </si>
+  <si>
+    <t>185.125.171.221:4021</t>
+  </si>
+  <si>
+    <t>2JjU2izT4rk1tGb</t>
+  </si>
+  <si>
+    <t>bEjmSK36Ma4C36t</t>
+  </si>
+  <si>
+    <t>Janice</t>
+  </si>
+  <si>
+    <t>Holley</t>
+  </si>
+  <si>
+    <t>lithbello60@gmail.com</t>
+  </si>
+  <si>
+    <t>wrddcsqmfqdkqkrx</t>
+  </si>
+  <si>
+    <t>Jesus</t>
+  </si>
+  <si>
+    <t>Gaither</t>
+  </si>
+  <si>
+    <t>seyiowolabi487@gmail.com</t>
+  </si>
+  <si>
+    <t>ssgyqwzufpmmeauu</t>
+  </si>
+  <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>Wong</t>
+  </si>
+  <si>
+    <t>zhalilu1992@gmail.com</t>
+  </si>
+  <si>
+    <t>tdogxhumqufbpodh</t>
+  </si>
+  <si>
+    <t>Judy</t>
+  </si>
+  <si>
+    <t>Marvin</t>
+  </si>
+  <si>
+    <t>clementidakpo@gmail.com</t>
+  </si>
+  <si>
+    <t>fftanaopilfsqyog</t>
   </si>
 </sst>
 </file>
@@ -1017,13 +915,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="A1:G10"/>
+      <selection activeCell="A2" sqref="A2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="23.88671875" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1085,174 +988,82 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/database/group_a.xlsx
+++ b/database/group_a.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>FIRSTFROMNAME</t>
   </si>
@@ -73,42 +73,6 @@
   </si>
   <si>
     <t>wrddcsqmfqdkqkrx</t>
-  </si>
-  <si>
-    <t>Jesus</t>
-  </si>
-  <si>
-    <t>Gaither</t>
-  </si>
-  <si>
-    <t>seyiowolabi487@gmail.com</t>
-  </si>
-  <si>
-    <t>ssgyqwzufpmmeauu</t>
-  </si>
-  <si>
-    <t>Russell</t>
-  </si>
-  <si>
-    <t>Wong</t>
-  </si>
-  <si>
-    <t>zhalilu1992@gmail.com</t>
-  </si>
-  <si>
-    <t>tdogxhumqufbpodh</t>
-  </si>
-  <si>
-    <t>Judy</t>
-  </si>
-  <si>
-    <t>Marvin</t>
-  </si>
-  <si>
-    <t>clementidakpo@gmail.com</t>
-  </si>
-  <si>
-    <t>fftanaopilfsqyog</t>
   </si>
 </sst>
 </file>
@@ -915,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G6"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -997,75 +961,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/group_a.xlsx
+++ b/database/group_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Upwork\2020\gmail_app\gmail_app_old\gmail_app_old\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Upwork\2020\gmail_app\gmail_app_old\gmail_app_old\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>FIRSTFROMNAME</t>
   </si>
@@ -73,13 +73,37 @@
   </si>
   <si>
     <t>wrddcsqmfqdkqkrx</t>
+  </si>
+  <si>
+    <t>john.snow42@outlook.hu</t>
+  </si>
+  <si>
+    <t>Whateverpass0*</t>
+  </si>
+  <si>
+    <t>davidgreenberg200@yahoo.com</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Greenberg</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>wjagnkpeldenlxmq</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +237,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF727479"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -556,8 +586,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -879,14 +910,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
     <col min="5" max="5" width="23.88671875" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" customWidth="1"/>
     <col min="7" max="7" width="25.88671875" customWidth="1"/>
@@ -961,7 +994,54 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/database/group_a.xlsx
+++ b/database/group_a.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>FIRSTFROMNAME</t>
   </si>
@@ -97,13 +97,19 @@
   </si>
   <si>
     <t>wjagnkpeldenlxmq</t>
+  </si>
+  <si>
+    <t>davidgreenberg329@aol.com</t>
+  </si>
+  <si>
+    <t>david.greenberg23@zohomail.eu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +249,20 @@
       <color rgb="FF727479"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -542,7 +562,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -585,12 +605,19 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -624,6 +651,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -910,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1040,8 +1068,57 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/database/group_a.xlsx
+++ b/database/group_a.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Upwork\2020\gmail_app\gmail_app_old\gmail_app_old\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Upwork\2020\gmail_app\gmail_app_old\gmail_app_old\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34200" windowHeight="11616"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34200" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="group_a" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>FIRSTFROMNAME</t>
   </si>
@@ -42,27 +42,6 @@
     <t>PROXY_PASS</t>
   </si>
   <si>
-    <t>Louise</t>
-  </si>
-  <si>
-    <t>Deforge</t>
-  </si>
-  <si>
-    <t>saidunuhu579@gmail.com</t>
-  </si>
-  <si>
-    <t>ujemlxfzbgwnkzpd</t>
-  </si>
-  <si>
-    <t>185.125.171.221:4021</t>
-  </si>
-  <si>
-    <t>2JjU2izT4rk1tGb</t>
-  </si>
-  <si>
-    <t>bEjmSK36Ma4C36t</t>
-  </si>
-  <si>
     <t>Janice</t>
   </si>
   <si>
@@ -73,6 +52,15 @@
   </si>
   <si>
     <t>wrddcsqmfqdkqkrx</t>
+  </si>
+  <si>
+    <t>198.140.141.18:47299</t>
+  </si>
+  <si>
+    <t>xL50iQ642EZkOn</t>
+  </si>
+  <si>
+    <t>i8IhO2946aEDpf</t>
   </si>
 </sst>
 </file>
@@ -879,20 +867,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G3" sqref="A2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="23.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="25.88671875" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -915,7 +903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -935,29 +923,6 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
         <v>13</v>
       </c>
     </row>

--- a/database/group_a.xlsx
+++ b/database/group_a.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>FIRSTFROMNAME</t>
   </si>
@@ -81,35 +81,17 @@
     <t>Whateverpass0*</t>
   </si>
   <si>
-    <t>davidgreenberg200@yahoo.com</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Greenberg</t>
-  </si>
-  <si>
     <t>John</t>
   </si>
   <si>
     <t>Snow</t>
-  </si>
-  <si>
-    <t>wjagnkpeldenlxmq</t>
-  </si>
-  <si>
-    <t>davidgreenberg329@aol.com</t>
-  </si>
-  <si>
-    <t>david.greenberg23@zohomail.eu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,23 +228,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF727479"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FFA9B7C6"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -562,7 +530,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -605,19 +573,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -651,7 +614,6 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -938,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -978,16 +940,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -1001,16 +963,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -1024,16 +986,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -1045,80 +1007,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/database/group_a.xlsx
+++ b/database/group_a.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>FIRSTFROMNAME</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>Snow</t>
+  </si>
+  <si>
+    <t>81.28.96.148:4000</t>
+  </si>
+  <si>
+    <t>i0BdGW79w6Oo</t>
+  </si>
+  <si>
+    <t>5Ao37R1ry6bc</t>
   </si>
 </sst>
 </file>
@@ -903,7 +912,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -952,13 +961,13 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">

--- a/database/group_a.xlsx
+++ b/database/group_a.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Upwork\2020\gmail_app\gmail_app_old\gmail_app_old\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Upwork\2020\gmail_app\gmail_app_old\gmail_app_old\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694BAD49-32E7-4340-81D7-D98F33FA9898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34200" windowHeight="11616"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="group_a" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="571">
   <si>
     <t>FIRSTFROMNAME</t>
   </si>
@@ -42,65 +43,1703 @@
     <t>PROXY_PASS</t>
   </si>
   <si>
-    <t>Louise</t>
-  </si>
-  <si>
-    <t>Deforge</t>
-  </si>
-  <si>
-    <t>saidunuhu579@gmail.com</t>
-  </si>
-  <si>
-    <t>ujemlxfzbgwnkzpd</t>
-  </si>
-  <si>
-    <t>185.125.171.221:4021</t>
-  </si>
-  <si>
-    <t>2JjU2izT4rk1tGb</t>
-  </si>
-  <si>
-    <t>bEjmSK36Ma4C36t</t>
-  </si>
-  <si>
-    <t>Janice</t>
-  </si>
-  <si>
-    <t>Holley</t>
-  </si>
-  <si>
-    <t>lithbello60@gmail.com</t>
-  </si>
-  <si>
-    <t>wrddcsqmfqdkqkrx</t>
-  </si>
-  <si>
-    <t>john.snow42@outlook.hu</t>
-  </si>
-  <si>
-    <t>Whateverpass0*</t>
-  </si>
-  <si>
     <t>John</t>
   </si>
   <si>
-    <t>Snow</t>
-  </si>
-  <si>
-    <t>81.28.96.148:4000</t>
-  </si>
-  <si>
-    <t>i0BdGW79w6Oo</t>
-  </si>
-  <si>
-    <t>5Ao37R1ry6bc</t>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>Horton</t>
+  </si>
+  <si>
+    <t>susan_hortonvwaa@outlook.com</t>
+  </si>
+  <si>
+    <t>vFM4Tqjnl2eKQND</t>
+  </si>
+  <si>
+    <t>81.28.96.40:4002</t>
+  </si>
+  <si>
+    <t>PJ5C8sm37i4b</t>
+  </si>
+  <si>
+    <t>56gRMx51KSrg</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Folki</t>
+  </si>
+  <si>
+    <t>thomasld_folki1@outlook.com</t>
+  </si>
+  <si>
+    <t>utH7DXEtaA6Umfv</t>
+  </si>
+  <si>
+    <t>81.28.96.40:4003</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>Newport</t>
+  </si>
+  <si>
+    <t>walteru6_newportgw@outlook.com</t>
+  </si>
+  <si>
+    <t>wba18Hq1BbNr5xd</t>
+  </si>
+  <si>
+    <t>81.28.96.40:4004</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Colicchiol</t>
+  </si>
+  <si>
+    <t>jamesxd_colicchiolh@outlook.com</t>
+  </si>
+  <si>
+    <t>aGsqywHLrE5xKA3</t>
+  </si>
+  <si>
+    <t>81.28.96.40:4005</t>
+  </si>
+  <si>
+    <t>Kenneth</t>
+  </si>
+  <si>
+    <t>Gay</t>
+  </si>
+  <si>
+    <t>kenneth_gaypkoi@outlook.com</t>
+  </si>
+  <si>
+    <t>etyMF8YewmeUg4A</t>
+  </si>
+  <si>
+    <t>81.28.96.40:4006</t>
+  </si>
+  <si>
+    <t>Larry</t>
+  </si>
+  <si>
+    <t>Wallis</t>
+  </si>
+  <si>
+    <t>larry49wallislvj@outlook.com</t>
+  </si>
+  <si>
+    <t>bEsNtM2G44he5gK</t>
+  </si>
+  <si>
+    <t>81.28.96.40:4007</t>
+  </si>
+  <si>
+    <t>Kathy</t>
+  </si>
+  <si>
+    <t>Grasso</t>
+  </si>
+  <si>
+    <t>kathy_grassohzsm@outlook.com</t>
+  </si>
+  <si>
+    <t>OzJHzLrvEysFcVe</t>
+  </si>
+  <si>
+    <t>81.28.96.40:4008</t>
+  </si>
+  <si>
+    <t>Frances</t>
+  </si>
+  <si>
+    <t>Wong</t>
+  </si>
+  <si>
+    <t>franceszd_wongho@outlook.com</t>
+  </si>
+  <si>
+    <t>7S2pJPdIS8DjIIK</t>
+  </si>
+  <si>
+    <t>81.28.96.40:4009</t>
+  </si>
+  <si>
+    <t>Sherry</t>
+  </si>
+  <si>
+    <t>Diaz</t>
+  </si>
+  <si>
+    <t>sherry29diazf01@outlook.com</t>
+  </si>
+  <si>
+    <t>TuEeAgNeBsQyTyd</t>
+  </si>
+  <si>
+    <t>81.28.96.40:4010</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Murphy</t>
+  </si>
+  <si>
+    <t>elizabethzq_murphyw7@outlook.com</t>
+  </si>
+  <si>
+    <t>dS5jpYayKh6UUGE</t>
+  </si>
+  <si>
+    <t>81.28.96.40:4011</t>
+  </si>
+  <si>
+    <t>Shelley</t>
+  </si>
+  <si>
+    <t>Elias</t>
+  </si>
+  <si>
+    <t>shelleyxw_eliasl8@outlook.com</t>
+  </si>
+  <si>
+    <t>TVRywCc0DQhFthq</t>
+  </si>
+  <si>
+    <t>81.28.96.40:4012</t>
+  </si>
+  <si>
+    <t>Burt</t>
+  </si>
+  <si>
+    <t>Chapman</t>
+  </si>
+  <si>
+    <t>burt20chapman0wn@outlook.com</t>
+  </si>
+  <si>
+    <t>31cwacWCkKzJgDY</t>
+  </si>
+  <si>
+    <t>81.28.96.40:4013</t>
+  </si>
+  <si>
+    <t>Ray</t>
+  </si>
+  <si>
+    <t>Lannou</t>
+  </si>
+  <si>
+    <t>ray80lannou5f@outlook.com</t>
+  </si>
+  <si>
+    <t>2iImsxadgfAb4Y0</t>
+  </si>
+  <si>
+    <t>81.28.96.40:4014</t>
+  </si>
+  <si>
+    <t>Marcelle</t>
+  </si>
+  <si>
+    <t>Mench</t>
+  </si>
+  <si>
+    <t>marcellepk_menchacaxx@outlook.com</t>
+  </si>
+  <si>
+    <t>g5sZnfcD5RX8DI0</t>
+  </si>
+  <si>
+    <t>81.28.96.40:4015</t>
+  </si>
+  <si>
+    <t>Sonya</t>
+  </si>
+  <si>
+    <t>Wells</t>
+  </si>
+  <si>
+    <t>sonya72wellsqxs@outlook.com</t>
+  </si>
+  <si>
+    <t>xGagy9mEhyiNGz4</t>
+  </si>
+  <si>
+    <t>81.28.96.40:4001</t>
+  </si>
+  <si>
+    <t>Lindsey</t>
+  </si>
+  <si>
+    <t>Hart</t>
+  </si>
+  <si>
+    <t>lindsey97hart3dd@outlook.com</t>
+  </si>
+  <si>
+    <t>g3fqgawt00V5Sut</t>
+  </si>
+  <si>
+    <t>Marie</t>
+  </si>
+  <si>
+    <t>Clarkson</t>
+  </si>
+  <si>
+    <t>marie88fishy1e@outlook.com</t>
+  </si>
+  <si>
+    <t>TFuV8byekybvt6i</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
+    <t>Stuart</t>
+  </si>
+  <si>
+    <t>brad_stuartir1u@outlook.com</t>
+  </si>
+  <si>
+    <t>VjSe0VbhVypLWSU</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>Cusick</t>
+  </si>
+  <si>
+    <t>barbara94cusickww2@outlook.com</t>
+  </si>
+  <si>
+    <t>NEOZ3QHu1oQal3z</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>sandra_gomezpe8k@outlook.com</t>
+  </si>
+  <si>
+    <t>39x5wsYmN7Jgy72</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Honig</t>
+  </si>
+  <si>
+    <t>joseph_honigwypy@outlook.com</t>
+  </si>
+  <si>
+    <t>v3xNwBv5BrlB4L4</t>
+  </si>
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>Ward</t>
+  </si>
+  <si>
+    <t>adrian50warnstafffzr@outlook.com</t>
+  </si>
+  <si>
+    <t>ou0i3aY1579yW5T</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Kinstlerik</t>
+  </si>
+  <si>
+    <t>nathanyz_kinstlerik@outlook.com</t>
+  </si>
+  <si>
+    <t>A3oL0HsBOateRiS</t>
+  </si>
+  <si>
+    <t>Shawn</t>
+  </si>
+  <si>
+    <t>Boyce</t>
+  </si>
+  <si>
+    <t>shawn58boycefb6@outlook.com</t>
+  </si>
+  <si>
+    <t>bS7Wqoq27NWwuZi</t>
+  </si>
+  <si>
+    <t>Luvenec</t>
+  </si>
+  <si>
+    <t>elizabeth_luvenecvoo@outlook.com</t>
+  </si>
+  <si>
+    <t>yQZ3lAyN7gjJf9t</t>
+  </si>
+  <si>
+    <t>Anita</t>
+  </si>
+  <si>
+    <t>Harris</t>
+  </si>
+  <si>
+    <t>anita_harrisqcmx@outlook.com</t>
+  </si>
+  <si>
+    <t>1n56363FmP9mruQ</t>
+  </si>
+  <si>
+    <t>Callie</t>
+  </si>
+  <si>
+    <t>Alba</t>
+  </si>
+  <si>
+    <t>callie_albaicnh@outlook.com</t>
+  </si>
+  <si>
+    <t>YJRtusCG9ukV6zZ</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>jonathan_wellsfz3g@outlook.com</t>
+  </si>
+  <si>
+    <t>RJid2LTsSoNnZ2B</t>
+  </si>
+  <si>
+    <t>Lynn</t>
+  </si>
+  <si>
+    <t>Shepherd</t>
+  </si>
+  <si>
+    <t>lynnlc_shepherdt2@outlook.com</t>
+  </si>
+  <si>
+    <t>ZaiM0fwDfsOfnhF</t>
+  </si>
+  <si>
+    <t>Debra</t>
+  </si>
+  <si>
+    <t>Robinett</t>
+  </si>
+  <si>
+    <t>debra_robinett63b0@outlook.com</t>
+  </si>
+  <si>
+    <t>8nXwPpST3yOXvzA</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>Coles</t>
+  </si>
+  <si>
+    <t>patrick4r_colesuf@outlook.com</t>
+  </si>
+  <si>
+    <t>eT4tkIVTMp3wPUQ</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Zacharias</t>
+  </si>
+  <si>
+    <t>joseo0_zachariasgz@outlook.com</t>
+  </si>
+  <si>
+    <t>OHvpE459aaioLoY</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Shinnick</t>
+  </si>
+  <si>
+    <t>mariaek_shinnickwl@outlook.com</t>
+  </si>
+  <si>
+    <t>XeB59esz19KAnGM</t>
+  </si>
+  <si>
+    <t>Wilma</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>wilmahl_williamsnw@outlook.com</t>
+  </si>
+  <si>
+    <t>ECUXWcXTbB5bSrb</t>
+  </si>
+  <si>
+    <t>Puckett</t>
+  </si>
+  <si>
+    <t>john17puckettexa@outlook.com</t>
+  </si>
+  <si>
+    <t>SlIHjmucsIsO34E</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Guzman</t>
+  </si>
+  <si>
+    <t>edward_guzman4qzb@outlook.com</t>
+  </si>
+  <si>
+    <t>lwjrWmNJnO8Ib5E</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Vessey</t>
+  </si>
+  <si>
+    <t>anthony_vesseymrcx@outlook.com</t>
+  </si>
+  <si>
+    <t>yqlxU9C79WRiR4i</t>
+  </si>
+  <si>
+    <t>Ellen</t>
+  </si>
+  <si>
+    <t>Jimenez</t>
+  </si>
+  <si>
+    <t>ellen_jimenezvypn@outlook.com</t>
+  </si>
+  <si>
+    <t>md0k7VF2yyMHuOo</t>
+  </si>
+  <si>
+    <t>Yolanda</t>
+  </si>
+  <si>
+    <t>Jennings</t>
+  </si>
+  <si>
+    <t>yolandami_jenningsmr@outlook.com</t>
+  </si>
+  <si>
+    <t>rVtLVhs70V2TBgM</t>
+  </si>
+  <si>
+    <t>Fargo</t>
+  </si>
+  <si>
+    <t>john78williamssu4@outlook.com</t>
+  </si>
+  <si>
+    <t>BbNmXBdvStXfrVk</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>Garneaut</t>
+  </si>
+  <si>
+    <t>douglas_garneaut1r6@outlook.com</t>
+  </si>
+  <si>
+    <t>NC12RkMiS4acyH9</t>
+  </si>
+  <si>
+    <t>Juanita</t>
+  </si>
+  <si>
+    <t>juanita45schwartz57v@outlook.com</t>
+  </si>
+  <si>
+    <t>I6Xj8X9JfVZqWlq</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Fraughton</t>
+  </si>
+  <si>
+    <t>andrew_fraughton4qtf@outlook.com</t>
+  </si>
+  <si>
+    <t>KAaWGYRKsU3Fd6s</t>
+  </si>
+  <si>
+    <t>Gibson</t>
+  </si>
+  <si>
+    <t>elizabeth90gibson3bb@outlook.com</t>
+  </si>
+  <si>
+    <t>9kkOOoNMYZL7MRA</t>
+  </si>
+  <si>
+    <t>Marc</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>marcorm_sanchezzt@outlook.com</t>
+  </si>
+  <si>
+    <t>smMWF3Hz1avRrxG</t>
+  </si>
+  <si>
+    <t>Joel</t>
+  </si>
+  <si>
+    <t>Hatfield</t>
+  </si>
+  <si>
+    <t>joel_hatfield3zel@outlook.com</t>
+  </si>
+  <si>
+    <t>PMxyPyf6oJYOcYC</t>
+  </si>
+  <si>
+    <t>Elbert</t>
+  </si>
+  <si>
+    <t>Ramey</t>
+  </si>
+  <si>
+    <t>elbert_rameyhgki@outlook.com</t>
+  </si>
+  <si>
+    <t>9lmhzNxoqIp4ABu</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>Gaffey</t>
+  </si>
+  <si>
+    <t>bradford4x_gaffeyfl@outlook.com</t>
+  </si>
+  <si>
+    <t>g1vuKVR2U6mXsu3</t>
+  </si>
+  <si>
+    <t>Boone</t>
+  </si>
+  <si>
+    <t>james98booneolw@outlook.com</t>
+  </si>
+  <si>
+    <t>guJumFQg5AXwtmc</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>michael98rodriguezyvn@outlook.com</t>
+  </si>
+  <si>
+    <t>qmRkM0HBe3T5DKU</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
+    <t>Novotny</t>
+  </si>
+  <si>
+    <t>donald_novotnyk93y@outlook.com</t>
+  </si>
+  <si>
+    <t>F562KMYvvotjFJS</t>
+  </si>
+  <si>
+    <t>Parham</t>
+  </si>
+  <si>
+    <t>johnyb_parhamod@outlook.com</t>
+  </si>
+  <si>
+    <t>o8fMC8gxBTglYan</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Eagle</t>
+  </si>
+  <si>
+    <t>frank70eaglefb2@outlook.com</t>
+  </si>
+  <si>
+    <t>aDMQglkFd47Wqk6</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>carlos20twymanaet@outlook.com</t>
+  </si>
+  <si>
+    <t>jUxkH87YUQ5desl</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
+  </si>
+  <si>
+    <t>charlesqi_mitchell67@outlook.com</t>
+  </si>
+  <si>
+    <t>jwmjQuIUIYa51Qh</t>
+  </si>
+  <si>
+    <t>Bertha</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>bertha_key5uth@outlook.com</t>
+  </si>
+  <si>
+    <t>2JA1MPahT2PXGlm</t>
+  </si>
+  <si>
+    <t>Curtis</t>
+  </si>
+  <si>
+    <t>Horkam</t>
+  </si>
+  <si>
+    <t>curtis60horkamo5@outlook.com</t>
+  </si>
+  <si>
+    <t>rrfzyZiJhU6EoSg</t>
+  </si>
+  <si>
+    <t>Aldo</t>
+  </si>
+  <si>
+    <t>Edmonds</t>
+  </si>
+  <si>
+    <t>aldo_edmondsxxgx@outlook.com</t>
+  </si>
+  <si>
+    <t>96QPUDfDY7OLGUf</t>
+  </si>
+  <si>
+    <t>Willard</t>
+  </si>
+  <si>
+    <t>Gaye</t>
+  </si>
+  <si>
+    <t>willard_mcmonaglevvmh@outlook.com</t>
+  </si>
+  <si>
+    <t>VTsKWEYVhSmXpPH</t>
+  </si>
+  <si>
+    <t>Shirley</t>
+  </si>
+  <si>
+    <t>Moulton</t>
+  </si>
+  <si>
+    <t>shirley_moultoncumd@outlook.com</t>
+  </si>
+  <si>
+    <t>YWtM1yZ8nIN4Qcg</t>
+  </si>
+  <si>
+    <t>Gracie</t>
+  </si>
+  <si>
+    <t>Helstrom</t>
+  </si>
+  <si>
+    <t>gracie82helstrom8dy@outlook.com</t>
+  </si>
+  <si>
+    <t>p0oayryPiLJ70Fv</t>
+  </si>
+  <si>
+    <t>Dion</t>
+  </si>
+  <si>
+    <t>Perl</t>
+  </si>
+  <si>
+    <t>dion_perlanwkx@outlook.com</t>
+  </si>
+  <si>
+    <t>7G0RiLpPIDiASov</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>jennifer_felixkupt@outlook.com</t>
+  </si>
+  <si>
+    <t>zZ3Qx3PPySzguO3</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>laura_mooreaxcv@outlook.com</t>
+  </si>
+  <si>
+    <t>f1ssvuAJh88rqFa</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>scott_jonescxuq@outlook.com</t>
+  </si>
+  <si>
+    <t>mBMEuBIxvexKdIZ</t>
+  </si>
+  <si>
+    <t>Carrie</t>
+  </si>
+  <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>carrie_russell2bqh@outlook.com</t>
+  </si>
+  <si>
+    <t>rqYns5nxhJetTqH</t>
+  </si>
+  <si>
+    <t>Stockman</t>
+  </si>
+  <si>
+    <t>josegc_stockman5d@outlook.com</t>
+  </si>
+  <si>
+    <t>qeBrkKHPPm4ftFc</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Paolucci</t>
+  </si>
+  <si>
+    <t>jorge38paolucci1ql@outlook.com</t>
+  </si>
+  <si>
+    <t>srgEgphxaRIfsMZ</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>sean_perezzy1y@outlook.com</t>
+  </si>
+  <si>
+    <t>D5o47nfrn0GgdfR</t>
+  </si>
+  <si>
+    <t>Kimberly</t>
+  </si>
+  <si>
+    <t>Roush</t>
+  </si>
+  <si>
+    <t>kimberly_roushtqlo@outlook.com</t>
+  </si>
+  <si>
+    <t>CeVgKS9PUOCCpy2</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Willmann</t>
+  </si>
+  <si>
+    <t>ryanbr_willmannkc@outlook.com</t>
+  </si>
+  <si>
+    <t>1qp9NSWHE8gpN2l</t>
+  </si>
+  <si>
+    <t>Michaelson</t>
+  </si>
+  <si>
+    <t>donald64michelsonk2a@outlook.com</t>
+  </si>
+  <si>
+    <t>JGfj0ORQWhr6hu8</t>
+  </si>
+  <si>
+    <t>Rebecca</t>
+  </si>
+  <si>
+    <t>rebecca_rodrigueze7bk@outlook.com</t>
+  </si>
+  <si>
+    <t>3bF7NK0qn3A1612</t>
+  </si>
+  <si>
+    <t>Casandra</t>
+  </si>
+  <si>
+    <t>Trevino</t>
+  </si>
+  <si>
+    <t>casandra_trevinoilus@outlook.com</t>
+  </si>
+  <si>
+    <t>Y5YK1PcMh442q8C</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Bouler</t>
+  </si>
+  <si>
+    <t>lisaox_boulerisgh@outlook.com</t>
+  </si>
+  <si>
+    <t>n2NpDDgjZYiKATp</t>
+  </si>
+  <si>
+    <t>Arlene</t>
+  </si>
+  <si>
+    <t>Mcluskey</t>
+  </si>
+  <si>
+    <t>arlene37mccluskeykax@outlook.com</t>
+  </si>
+  <si>
+    <t>o66X3rntZAYWTix</t>
+  </si>
+  <si>
+    <t>Dorothy</t>
+  </si>
+  <si>
+    <t>Mann</t>
+  </si>
+  <si>
+    <t>dorothy14matosac1@outlook.com</t>
+  </si>
+  <si>
+    <t>D1z9ohsRlZQv1St</t>
+  </si>
+  <si>
+    <t>Ricky</t>
+  </si>
+  <si>
+    <t>Graves</t>
+  </si>
+  <si>
+    <t>ricky21gravesbjo@outlook.com</t>
+  </si>
+  <si>
+    <t>uYobkqbm0tvoKjv</t>
+  </si>
+  <si>
+    <t>Erin</t>
+  </si>
+  <si>
+    <t>Gouten</t>
+  </si>
+  <si>
+    <t>erin56tutenftr@outlook.com</t>
+  </si>
+  <si>
+    <t>2wVws6FD2XT6hml</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Garland</t>
+  </si>
+  <si>
+    <t>mary50garlandijw@outlook.com</t>
+  </si>
+  <si>
+    <t>h6dpRXIJrIADjog</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>Borsellino</t>
+  </si>
+  <si>
+    <t>fred_borsellinobabk@outlook.com</t>
+  </si>
+  <si>
+    <t>EfNMNQUoBxnCfs1</t>
+  </si>
+  <si>
+    <t>Morton</t>
+  </si>
+  <si>
+    <t>Roman</t>
+  </si>
+  <si>
+    <t>morton14romanzht@outlook.com</t>
+  </si>
+  <si>
+    <t>aENPMfIXwR5WMvj</t>
+  </si>
+  <si>
+    <t>Myrtle</t>
+  </si>
+  <si>
+    <t>Sanders</t>
+  </si>
+  <si>
+    <t>myrtle_sandersgefa@outlook.com</t>
+  </si>
+  <si>
+    <t>OmA6UafOSPMql4w</t>
+  </si>
+  <si>
+    <t>Reed</t>
+  </si>
+  <si>
+    <t>Henderson</t>
+  </si>
+  <si>
+    <t>reedea_hendersonuk@outlook.com</t>
+  </si>
+  <si>
+    <t>yVonrH5XSvWnWqE</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>daniel_lewiskw3f@outlook.com</t>
+  </si>
+  <si>
+    <t>LKCGpU2Og0rUHhF</t>
+  </si>
+  <si>
+    <t>Rico</t>
+  </si>
+  <si>
+    <t>ricork_scotta3@outlook.com</t>
+  </si>
+  <si>
+    <t>MEKCcT8xKDApBhu</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>Westbrooks</t>
+  </si>
+  <si>
+    <t>amy_westbrooksgzrg@outlook.com</t>
+  </si>
+  <si>
+    <t>YJPYDPXvOwxH2GG</t>
+  </si>
+  <si>
+    <t>Lana</t>
+  </si>
+  <si>
+    <t>lana_lewiskduv@outlook.com</t>
+  </si>
+  <si>
+    <t>dExI2HlvmUbUMxr</t>
+  </si>
+  <si>
+    <t>Conway</t>
+  </si>
+  <si>
+    <t>john59conaway3ex@outlook.com</t>
+  </si>
+  <si>
+    <t>QXtf67KfixEJRJN</t>
+  </si>
+  <si>
+    <t>Sterling</t>
+  </si>
+  <si>
+    <t>edwardag_sterling1a@outlook.com</t>
+  </si>
+  <si>
+    <t>LtWbCe3oLQfCver</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>karen7a_anglenzh@outlook.com</t>
+  </si>
+  <si>
+    <t>oOSMhjF5NCqFuYU</t>
+  </si>
+  <si>
+    <t>Ernest</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>ernest82allenapd@outlook.com</t>
+  </si>
+  <si>
+    <t>u7WhtBaIsz1zM9x</t>
+  </si>
+  <si>
+    <t>Rachael</t>
+  </si>
+  <si>
+    <t>rachael_chapmanqyiq@outlook.com</t>
+  </si>
+  <si>
+    <t>zO8XKRLD9R1OR7g</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>barbara_jenkins3pmm@outlook.com</t>
+  </si>
+  <si>
+    <t>LND8hg3o5AVeqrv</t>
+  </si>
+  <si>
+    <t>Orvill</t>
+  </si>
+  <si>
+    <t>orvilleno_amyxls@outlook.com</t>
+  </si>
+  <si>
+    <t>ph3ye1MFasVBcQN</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>aaron37morgane5x@outlook.com</t>
+  </si>
+  <si>
+    <t>nFAYwqqtwP5uplO</t>
+  </si>
+  <si>
+    <t>Marley</t>
+  </si>
+  <si>
+    <t>Carlson</t>
+  </si>
+  <si>
+    <t>kumarravindra90530@gmail.com</t>
+  </si>
+  <si>
+    <t>bjnqkpmaqcvznwki</t>
+  </si>
+  <si>
+    <t>Declan</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>kumarjay06259@gmail.com</t>
+  </si>
+  <si>
+    <t>flzqmalssmylylai</t>
+  </si>
+  <si>
+    <t>Paola</t>
+  </si>
+  <si>
+    <t>rahulkumar91700582@gmail.com</t>
+  </si>
+  <si>
+    <t>tiucnflebliznlun</t>
+  </si>
+  <si>
+    <t>Azul</t>
+  </si>
+  <si>
+    <t>Gallegos</t>
+  </si>
+  <si>
+    <t>shreenivas9119@gmail.com</t>
+  </si>
+  <si>
+    <t>ekjsqaixwmiesiyh</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
+    <t>Mccarty</t>
+  </si>
+  <si>
+    <t>rajk497588@gmail.com</t>
+  </si>
+  <si>
+    <t>qbtmwjplccogicav</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Holt</t>
+  </si>
+  <si>
+    <t>faizanansar9041@gmail.com</t>
+  </si>
+  <si>
+    <t>hxvzhojgxvtcgyda</t>
+  </si>
+  <si>
+    <t>Mateo</t>
+  </si>
+  <si>
+    <t>Bonilla</t>
+  </si>
+  <si>
+    <t>kalluyadavkalluyadv@gmail.com</t>
+  </si>
+  <si>
+    <t>iglbapcynuqfgwqv</t>
+  </si>
+  <si>
+    <t>Tyrone</t>
+  </si>
+  <si>
+    <t>Montes</t>
+  </si>
+  <si>
+    <t>khansiroj32@gmail.com</t>
+  </si>
+  <si>
+    <t>rmbbohrkxvnixgmb</t>
+  </si>
+  <si>
+    <t>Jesus</t>
+  </si>
+  <si>
+    <t>vikramkumarmali494@gmail.com</t>
+  </si>
+  <si>
+    <t>glgscoebloptujmf</t>
+  </si>
+  <si>
+    <t>Deacon</t>
+  </si>
+  <si>
+    <t>Mckay</t>
+  </si>
+  <si>
+    <t>shivdasparjpati6921@gmail.com</t>
+  </si>
+  <si>
+    <t>ecdpzzcbdiylbslt</t>
+  </si>
+  <si>
+    <t>Freddy</t>
+  </si>
+  <si>
+    <t>Parrish</t>
+  </si>
+  <si>
+    <t>kumardanish8923@gmail.com</t>
+  </si>
+  <si>
+    <t>jcroxotvvqiwmblt</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Vance</t>
+  </si>
+  <si>
+    <t>ns8230587@gmail.com</t>
+  </si>
+  <si>
+    <t>rvwkekcazanenxcq</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>ih6146847@gmail.com</t>
+  </si>
+  <si>
+    <t>ilpaaoclbwycbdkw</t>
+  </si>
+  <si>
+    <t>Jessie</t>
+  </si>
+  <si>
+    <t>Rosales</t>
+  </si>
+  <si>
+    <t>rv571622@gmail.com</t>
+  </si>
+  <si>
+    <t>tmakzkydsdwllyqk</t>
+  </si>
+  <si>
+    <t>Jaden</t>
+  </si>
+  <si>
+    <t>Floyd</t>
+  </si>
+  <si>
+    <t>aliv32703@gmail.com</t>
+  </si>
+  <si>
+    <t>jmqxfvifzrsvwevx</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Barron</t>
+  </si>
+  <si>
+    <t>altamashqureshi8118@gmail.com</t>
+  </si>
+  <si>
+    <t>mcwmzfkidvnjxwdx</t>
+  </si>
+  <si>
+    <t>Alfonso</t>
+  </si>
+  <si>
+    <t>Whitney</t>
+  </si>
+  <si>
+    <t>jaatvivek484@gmail.com</t>
+  </si>
+  <si>
+    <t>sbkdkrxkvsoyttsb</t>
+  </si>
+  <si>
+    <t>Armani</t>
+  </si>
+  <si>
+    <t>Mcfarland</t>
+  </si>
+  <si>
+    <t>rk6178678@gmail.com</t>
+  </si>
+  <si>
+    <t>evncoutofcbidkjt</t>
+  </si>
+  <si>
+    <t>Cassie</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>rajulmsal29561@gmail.com</t>
+  </si>
+  <si>
+    <t>hfzpxiydkozppele</t>
+  </si>
+  <si>
+    <t>Kayla</t>
+  </si>
+  <si>
+    <t>Hines</t>
+  </si>
+  <si>
+    <t>dk0400603@gmail.com</t>
+  </si>
+  <si>
+    <t>cfbzehjyudownerh</t>
+  </si>
+  <si>
+    <t>Harmony</t>
+  </si>
+  <si>
+    <t>Willis</t>
+  </si>
+  <si>
+    <t>ganeshluhar25@gmail.com</t>
+  </si>
+  <si>
+    <t>hxidsnelydmeshdr</t>
+  </si>
+  <si>
+    <t>Tucker</t>
+  </si>
+  <si>
+    <t>Collier</t>
+  </si>
+  <si>
+    <t>aartigoswami115@gmail.com</t>
+  </si>
+  <si>
+    <t>yxqijisrragcrhaz</t>
+  </si>
+  <si>
+    <t>Kaydence</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>pawanrajbhar274@gmail.com</t>
+  </si>
+  <si>
+    <t>cpwwjfcmvfanjgpf</t>
+  </si>
+  <si>
+    <t>Haley</t>
+  </si>
+  <si>
+    <t>Huber</t>
+  </si>
+  <si>
+    <t>kmp232339@gmail.com</t>
+  </si>
+  <si>
+    <t>gqiqqtsdtfcdnsxs</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>roshanranaroshan419@gmail.com</t>
+  </si>
+  <si>
+    <t>fvvwzcvewjqxwokr</t>
+  </si>
+  <si>
+    <t>Kailyn</t>
+  </si>
+  <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>am3889145@gmail.com</t>
+  </si>
+  <si>
+    <t>locpfpargqapaxwn</t>
+  </si>
+  <si>
+    <t>Toby</t>
+  </si>
+  <si>
+    <t>Harvey</t>
+  </si>
+  <si>
+    <t>chauhanchauhan9071@gmail.com</t>
+  </si>
+  <si>
+    <t>fltvkwqeukbeoiuu</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Crane</t>
+  </si>
+  <si>
+    <t>kaishansari6378@gmail.com</t>
+  </si>
+  <si>
+    <t>aeiswvfrmbwgsmyu</t>
+  </si>
+  <si>
+    <t>Sanaa</t>
+  </si>
+  <si>
+    <t>Lawson</t>
+  </si>
+  <si>
+    <t>shiv8726106702@gmail.com</t>
+  </si>
+  <si>
+    <t>xvmgdccyjkqcfgsv</t>
+  </si>
+  <si>
+    <t>Eden</t>
+  </si>
+  <si>
+    <t>mazam732444@gmail.com</t>
+  </si>
+  <si>
+    <t>kplzgtecvhxpcptv</t>
+  </si>
+  <si>
+    <t>Julian</t>
+  </si>
+  <si>
+    <t>Acevedo</t>
+  </si>
+  <si>
+    <t>ts2112108@gmail.com</t>
+  </si>
+  <si>
+    <t>whfktmlcohkvbudu</t>
+  </si>
+  <si>
+    <t>Elisabeth</t>
+  </si>
+  <si>
+    <t>Mckenzie</t>
+  </si>
+  <si>
+    <t>gopalsinghraigopi@gmail.com</t>
+  </si>
+  <si>
+    <t>kalnyktzuplrzwwd</t>
+  </si>
+  <si>
+    <t>Kendall</t>
+  </si>
+  <si>
+    <t>nathvikash293@gmail.com</t>
+  </si>
+  <si>
+    <t>kvfsapraodokkmbp</t>
+  </si>
+  <si>
+    <t>Marlon</t>
+  </si>
+  <si>
+    <t>Potter</t>
+  </si>
+  <si>
+    <t>dji85985@gmail.com</t>
+  </si>
+  <si>
+    <t>zcvgzpvdtlxchmgl</t>
+  </si>
+  <si>
+    <t>Andres</t>
+  </si>
+  <si>
+    <t>Robles</t>
+  </si>
+  <si>
+    <t>pk4508561@gmail.com</t>
+  </si>
+  <si>
+    <t>nnhaxmzuanfekglx</t>
+  </si>
+  <si>
+    <t>Devin</t>
+  </si>
+  <si>
+    <t>Greene</t>
+  </si>
+  <si>
+    <t>pkumari52335@gmail.com</t>
+  </si>
+  <si>
+    <t>dlmudgitvcvsocjm</t>
+  </si>
+  <si>
+    <t>Angel</t>
+  </si>
+  <si>
+    <t>Lyons</t>
+  </si>
+  <si>
+    <t>rinkudiwakar614@gmail.com</t>
+  </si>
+  <si>
+    <t>ffzbucbzazzqbvqm</t>
+  </si>
+  <si>
+    <t>Nevaeh</t>
+  </si>
+  <si>
+    <t>Guerrero</t>
+  </si>
+  <si>
+    <t>ml8718621@gmail.com</t>
+  </si>
+  <si>
+    <t>pumximyynoslrvkq</t>
+  </si>
+  <si>
+    <t>Jeremy</t>
+  </si>
+  <si>
+    <t>roy309061@gmail.com</t>
+  </si>
+  <si>
+    <t>dyucogjqaadtyzgv</t>
+  </si>
+  <si>
+    <t>Jovani</t>
+  </si>
+  <si>
+    <t>Villanueva</t>
+  </si>
+  <si>
+    <t>rai84630@gmail.com</t>
+  </si>
+  <si>
+    <t>xjwulkptymvlfwuh</t>
+  </si>
+  <si>
+    <t>Cannon</t>
+  </si>
+  <si>
+    <t>Sandoval</t>
+  </si>
+  <si>
+    <t>ma7084869@gmail.com</t>
+  </si>
+  <si>
+    <t>lfnfalqzfufbqijh</t>
+  </si>
+  <si>
+    <t>Terrance</t>
+  </si>
+  <si>
+    <t>Wallace</t>
+  </si>
+  <si>
+    <t>ha2500522@gmail.com</t>
+  </si>
+  <si>
+    <t>lacnryfdvdsvuknw</t>
+  </si>
+  <si>
+    <t>Camacho</t>
+  </si>
+  <si>
+    <t>haqefazle783@gmail.com</t>
+  </si>
+  <si>
+    <t>zpjotivzxnfksfoy</t>
+  </si>
+  <si>
+    <t>Stanley</t>
+  </si>
+  <si>
+    <t>Bush</t>
+  </si>
+  <si>
+    <t>fareene958@gmail.com</t>
+  </si>
+  <si>
+    <t>tlywbeigbsyevlgv</t>
+  </si>
+  <si>
+    <t>Yurem</t>
+  </si>
+  <si>
+    <t>Reilly</t>
+  </si>
+  <si>
+    <t>rsmvilashnishad@gmail.com</t>
+  </si>
+  <si>
+    <t>xqxuadarxaurenae</t>
+  </si>
+  <si>
+    <t>Alyvia</t>
+  </si>
+  <si>
+    <t>Conrad</t>
+  </si>
+  <si>
+    <t>chaurasiyamalti3@gmail.com</t>
+  </si>
+  <si>
+    <t>gaomtlxprkpukxef</t>
+  </si>
+  <si>
+    <t>Junior</t>
+  </si>
+  <si>
+    <t>poonamkumari1998ucr@gmail.com</t>
+  </si>
+  <si>
+    <t>oefyimolhxqdtumk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -908,14 +2547,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="25.6640625" customWidth="1"/>
@@ -924,7 +2563,7 @@
     <col min="7" max="7" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -947,78 +2586,3294 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" t="s">
+        <v>161</v>
+      </c>
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" t="s">
+        <v>177</v>
+      </c>
+      <c r="E40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" t="s">
+        <v>179</v>
+      </c>
+      <c r="D41" t="s">
+        <v>180</v>
+      </c>
+      <c r="E41" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B42" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" t="s">
+        <v>183</v>
+      </c>
+      <c r="D42" t="s">
+        <v>184</v>
+      </c>
+      <c r="E42" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>185</v>
+      </c>
+      <c r="B43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" t="s">
+        <v>186</v>
+      </c>
+      <c r="D43" t="s">
+        <v>187</v>
+      </c>
+      <c r="E43" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44" t="s">
+        <v>190</v>
+      </c>
+      <c r="D44" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" t="s">
+        <v>193</v>
+      </c>
+      <c r="D45" t="s">
+        <v>194</v>
+      </c>
+      <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>195</v>
+      </c>
+      <c r="B46" t="s">
+        <v>196</v>
+      </c>
+      <c r="C46" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46" t="s">
+        <v>198</v>
+      </c>
+      <c r="E46" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47" t="s">
+        <v>200</v>
+      </c>
+      <c r="C47" t="s">
+        <v>201</v>
+      </c>
+      <c r="D47" t="s">
+        <v>202</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>203</v>
+      </c>
+      <c r="B48" t="s">
+        <v>204</v>
+      </c>
+      <c r="C48" t="s">
+        <v>205</v>
+      </c>
+      <c r="D48" t="s">
+        <v>206</v>
+      </c>
+      <c r="E48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>207</v>
+      </c>
+      <c r="B49" t="s">
+        <v>208</v>
+      </c>
+      <c r="C49" t="s">
+        <v>209</v>
+      </c>
+      <c r="D49" t="s">
+        <v>210</v>
+      </c>
+      <c r="E49" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" t="s">
+        <v>212</v>
+      </c>
+      <c r="D50" t="s">
+        <v>213</v>
+      </c>
+      <c r="E50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>214</v>
+      </c>
+      <c r="B51" t="s">
+        <v>215</v>
+      </c>
+      <c r="C51" t="s">
+        <v>216</v>
+      </c>
+      <c r="D51" t="s">
+        <v>217</v>
+      </c>
+      <c r="E51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>218</v>
+      </c>
+      <c r="B52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C52" t="s">
+        <v>220</v>
+      </c>
+      <c r="D52" t="s">
+        <v>221</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>222</v>
+      </c>
+      <c r="C53" t="s">
+        <v>223</v>
+      </c>
+      <c r="D53" t="s">
+        <v>224</v>
+      </c>
+      <c r="E53" t="s">
+        <v>49</v>
+      </c>
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>225</v>
+      </c>
+      <c r="B54" t="s">
+        <v>226</v>
+      </c>
+      <c r="C54" t="s">
+        <v>227</v>
+      </c>
+      <c r="D54" t="s">
+        <v>228</v>
+      </c>
+      <c r="E54" t="s">
+        <v>54</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>229</v>
+      </c>
+      <c r="B55" t="s">
+        <v>230</v>
+      </c>
+      <c r="C55" t="s">
+        <v>231</v>
+      </c>
+      <c r="D55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E55" t="s">
+        <v>59</v>
+      </c>
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>233</v>
+      </c>
+      <c r="B56" t="s">
+        <v>234</v>
+      </c>
+      <c r="C56" t="s">
+        <v>235</v>
+      </c>
+      <c r="D56" t="s">
+        <v>236</v>
+      </c>
+      <c r="E56" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>237</v>
+      </c>
+      <c r="B57" t="s">
+        <v>238</v>
+      </c>
+      <c r="C57" t="s">
+        <v>239</v>
+      </c>
+      <c r="D57" t="s">
+        <v>240</v>
+      </c>
+      <c r="E57" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>241</v>
+      </c>
+      <c r="B58" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58" t="s">
+        <v>243</v>
+      </c>
+      <c r="D58" t="s">
+        <v>244</v>
+      </c>
+      <c r="E58" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>245</v>
+      </c>
+      <c r="B59" t="s">
+        <v>246</v>
+      </c>
+      <c r="C59" t="s">
+        <v>247</v>
+      </c>
+      <c r="D59" t="s">
+        <v>248</v>
+      </c>
+      <c r="E59" t="s">
+        <v>79</v>
+      </c>
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>249</v>
+      </c>
+      <c r="B60" t="s">
+        <v>250</v>
+      </c>
+      <c r="C60" t="s">
+        <v>251</v>
+      </c>
+      <c r="D60" t="s">
+        <v>252</v>
+      </c>
+      <c r="E60" t="s">
+        <v>84</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>253</v>
+      </c>
+      <c r="B61" t="s">
+        <v>254</v>
+      </c>
+      <c r="C61" t="s">
+        <v>255</v>
+      </c>
+      <c r="D61" t="s">
+        <v>256</v>
+      </c>
+      <c r="E61" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="F61" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>257</v>
+      </c>
+      <c r="B62" t="s">
+        <v>258</v>
+      </c>
+      <c r="C62" t="s">
+        <v>259</v>
+      </c>
+      <c r="D62" t="s">
+        <v>260</v>
+      </c>
+      <c r="E62" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>261</v>
+      </c>
+      <c r="B63" t="s">
+        <v>262</v>
+      </c>
+      <c r="C63" t="s">
+        <v>263</v>
+      </c>
+      <c r="D63" t="s">
+        <v>264</v>
+      </c>
+      <c r="E63" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>265</v>
+      </c>
+      <c r="B64" t="s">
+        <v>266</v>
+      </c>
+      <c r="C64" t="s">
+        <v>267</v>
+      </c>
+      <c r="D64" t="s">
+        <v>268</v>
+      </c>
+      <c r="E64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>269</v>
+      </c>
+      <c r="B65" t="s">
+        <v>270</v>
+      </c>
+      <c r="C65" t="s">
+        <v>271</v>
+      </c>
+      <c r="D65" t="s">
+        <v>272</v>
+      </c>
+      <c r="E65" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>273</v>
+      </c>
+      <c r="B66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C66" t="s">
+        <v>275</v>
+      </c>
+      <c r="D66" t="s">
+        <v>276</v>
+      </c>
+      <c r="E66" t="s">
+        <v>39</v>
+      </c>
+      <c r="F66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>277</v>
+      </c>
+      <c r="B67" t="s">
+        <v>278</v>
+      </c>
+      <c r="C67" t="s">
+        <v>279</v>
+      </c>
+      <c r="D67" t="s">
+        <v>280</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" t="s">
+        <v>281</v>
+      </c>
+      <c r="C68" t="s">
+        <v>282</v>
+      </c>
+      <c r="D68" t="s">
+        <v>283</v>
+      </c>
+      <c r="E68" t="s">
+        <v>49</v>
+      </c>
+      <c r="F68" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>284</v>
+      </c>
+      <c r="B69" t="s">
+        <v>285</v>
+      </c>
+      <c r="C69" t="s">
+        <v>286</v>
+      </c>
+      <c r="D69" t="s">
+        <v>287</v>
+      </c>
+      <c r="E69" t="s">
+        <v>54</v>
+      </c>
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>288</v>
+      </c>
+      <c r="B70" t="s">
+        <v>289</v>
+      </c>
+      <c r="C70" t="s">
+        <v>290</v>
+      </c>
+      <c r="D70" t="s">
+        <v>291</v>
+      </c>
+      <c r="E70" t="s">
+        <v>59</v>
+      </c>
+      <c r="F70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>292</v>
+      </c>
+      <c r="B71" t="s">
+        <v>293</v>
+      </c>
+      <c r="C71" t="s">
+        <v>294</v>
+      </c>
+      <c r="D71" t="s">
+        <v>295</v>
+      </c>
+      <c r="E71" t="s">
+        <v>64</v>
+      </c>
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>296</v>
+      </c>
+      <c r="B72" t="s">
+        <v>297</v>
+      </c>
+      <c r="C72" t="s">
+        <v>298</v>
+      </c>
+      <c r="D72" t="s">
+        <v>299</v>
+      </c>
+      <c r="E72" t="s">
+        <v>69</v>
+      </c>
+      <c r="F72" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>218</v>
+      </c>
+      <c r="B73" t="s">
+        <v>300</v>
+      </c>
+      <c r="C73" t="s">
+        <v>301</v>
+      </c>
+      <c r="D73" t="s">
+        <v>302</v>
+      </c>
+      <c r="E73" t="s">
+        <v>74</v>
+      </c>
+      <c r="F73" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>303</v>
+      </c>
+      <c r="B74" t="s">
+        <v>215</v>
+      </c>
+      <c r="C74" t="s">
+        <v>304</v>
+      </c>
+      <c r="D74" t="s">
+        <v>305</v>
+      </c>
+      <c r="E74" t="s">
+        <v>79</v>
+      </c>
+      <c r="F74" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>306</v>
+      </c>
+      <c r="B75" t="s">
+        <v>307</v>
+      </c>
+      <c r="C75" t="s">
+        <v>308</v>
+      </c>
+      <c r="D75" t="s">
+        <v>309</v>
+      </c>
+      <c r="E75" t="s">
+        <v>84</v>
+      </c>
+      <c r="F75" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>310</v>
+      </c>
+      <c r="B76" t="s">
+        <v>311</v>
+      </c>
+      <c r="C76" t="s">
+        <v>312</v>
+      </c>
+      <c r="D76" t="s">
+        <v>313</v>
+      </c>
+      <c r="E76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>314</v>
+      </c>
+      <c r="B77" t="s">
+        <v>315</v>
+      </c>
+      <c r="C77" t="s">
+        <v>316</v>
+      </c>
+      <c r="D77" t="s">
+        <v>317</v>
+      </c>
+      <c r="E77" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>318</v>
+      </c>
+      <c r="B78" t="s">
+        <v>319</v>
+      </c>
+      <c r="C78" t="s">
+        <v>320</v>
+      </c>
+      <c r="D78" t="s">
+        <v>321</v>
+      </c>
+      <c r="E78" t="s">
+        <v>24</v>
+      </c>
+      <c r="F78" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>322</v>
+      </c>
+      <c r="B79" t="s">
+        <v>323</v>
+      </c>
+      <c r="C79" t="s">
+        <v>324</v>
+      </c>
+      <c r="D79" t="s">
+        <v>325</v>
+      </c>
+      <c r="E79" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>326</v>
+      </c>
+      <c r="B80" t="s">
+        <v>327</v>
+      </c>
+      <c r="C80" t="s">
+        <v>328</v>
+      </c>
+      <c r="D80" t="s">
+        <v>329</v>
+      </c>
+      <c r="E80" t="s">
+        <v>39</v>
+      </c>
+      <c r="F80" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>330</v>
+      </c>
+      <c r="B81" t="s">
+        <v>331</v>
+      </c>
+      <c r="C81" t="s">
+        <v>332</v>
+      </c>
+      <c r="D81" t="s">
+        <v>333</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>334</v>
+      </c>
+      <c r="B82" t="s">
+        <v>335</v>
+      </c>
+      <c r="C82" t="s">
+        <v>336</v>
+      </c>
+      <c r="D82" t="s">
+        <v>337</v>
+      </c>
+      <c r="E82" t="s">
+        <v>49</v>
+      </c>
+      <c r="F82" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>338</v>
+      </c>
+      <c r="B83" t="s">
+        <v>339</v>
+      </c>
+      <c r="C83" t="s">
+        <v>340</v>
+      </c>
+      <c r="D83" t="s">
+        <v>341</v>
+      </c>
+      <c r="E83" t="s">
+        <v>54</v>
+      </c>
+      <c r="F83" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>342</v>
+      </c>
+      <c r="B84" t="s">
+        <v>343</v>
+      </c>
+      <c r="C84" t="s">
+        <v>344</v>
+      </c>
+      <c r="D84" t="s">
+        <v>345</v>
+      </c>
+      <c r="E84" t="s">
+        <v>59</v>
+      </c>
+      <c r="F84" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>346</v>
+      </c>
+      <c r="B85" t="s">
+        <v>347</v>
+      </c>
+      <c r="C85" t="s">
+        <v>348</v>
+      </c>
+      <c r="D85" t="s">
+        <v>349</v>
+      </c>
+      <c r="E85" t="s">
+        <v>64</v>
+      </c>
+      <c r="F85" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>350</v>
+      </c>
+      <c r="B86" t="s">
+        <v>351</v>
+      </c>
+      <c r="C86" t="s">
+        <v>352</v>
+      </c>
+      <c r="D86" t="s">
+        <v>353</v>
+      </c>
+      <c r="E86" t="s">
+        <v>69</v>
+      </c>
+      <c r="F86" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>354</v>
+      </c>
+      <c r="B87" t="s">
+        <v>273</v>
+      </c>
+      <c r="C87" t="s">
+        <v>355</v>
+      </c>
+      <c r="D87" t="s">
+        <v>356</v>
+      </c>
+      <c r="E87" t="s">
+        <v>74</v>
+      </c>
+      <c r="F87" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>357</v>
+      </c>
+      <c r="B88" t="s">
+        <v>358</v>
+      </c>
+      <c r="C88" t="s">
+        <v>359</v>
+      </c>
+      <c r="D88" t="s">
+        <v>360</v>
+      </c>
+      <c r="E88" t="s">
+        <v>79</v>
+      </c>
+      <c r="F88" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>361</v>
+      </c>
+      <c r="B89" t="s">
+        <v>351</v>
+      </c>
+      <c r="C89" t="s">
+        <v>362</v>
+      </c>
+      <c r="D89" t="s">
+        <v>363</v>
+      </c>
+      <c r="E89" t="s">
+        <v>84</v>
+      </c>
+      <c r="F89" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>364</v>
+      </c>
+      <c r="C90" t="s">
+        <v>365</v>
+      </c>
+      <c r="D90" t="s">
+        <v>366</v>
+      </c>
+      <c r="E90" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" t="s">
+        <v>367</v>
+      </c>
+      <c r="C91" t="s">
+        <v>368</v>
+      </c>
+      <c r="D91" t="s">
+        <v>369</v>
+      </c>
+      <c r="E91" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>370</v>
+      </c>
+      <c r="B92" t="s">
+        <v>371</v>
+      </c>
+      <c r="C92" t="s">
+        <v>372</v>
+      </c>
+      <c r="D92" t="s">
+        <v>373</v>
+      </c>
+      <c r="E92" t="s">
+        <v>24</v>
+      </c>
+      <c r="F92" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>374</v>
+      </c>
+      <c r="B93" t="s">
+        <v>375</v>
+      </c>
+      <c r="C93" t="s">
+        <v>376</v>
+      </c>
+      <c r="D93" t="s">
+        <v>377</v>
+      </c>
+      <c r="E93" t="s">
+        <v>29</v>
+      </c>
+      <c r="F93" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>378</v>
+      </c>
+      <c r="B94" t="s">
+        <v>66</v>
+      </c>
+      <c r="C94" t="s">
+        <v>379</v>
+      </c>
+      <c r="D94" t="s">
+        <v>380</v>
+      </c>
+      <c r="E94" t="s">
+        <v>34</v>
+      </c>
+      <c r="F94" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>381</v>
+      </c>
+      <c r="C95" t="s">
+        <v>382</v>
+      </c>
+      <c r="D95" t="s">
+        <v>383</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>384</v>
+      </c>
+      <c r="B96" t="s">
+        <v>357</v>
+      </c>
+      <c r="C96" t="s">
+        <v>385</v>
+      </c>
+      <c r="D96" t="s">
+        <v>386</v>
+      </c>
+      <c r="E96" t="s">
+        <v>49</v>
+      </c>
+      <c r="F96" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>387</v>
+      </c>
+      <c r="B97" t="s">
+        <v>388</v>
+      </c>
+      <c r="C97" t="s">
+        <v>389</v>
+      </c>
+      <c r="D97" t="s">
+        <v>390</v>
+      </c>
+      <c r="E97" t="s">
+        <v>54</v>
+      </c>
+      <c r="F97" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>391</v>
+      </c>
+      <c r="B98" t="s">
+        <v>392</v>
+      </c>
+      <c r="C98" t="s">
+        <v>393</v>
+      </c>
+      <c r="D98" t="s">
+        <v>394</v>
+      </c>
+      <c r="E98" t="s">
+        <v>59</v>
+      </c>
+      <c r="F98" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>395</v>
+      </c>
+      <c r="B99" t="s">
+        <v>396</v>
+      </c>
+      <c r="C99" t="s">
+        <v>397</v>
+      </c>
+      <c r="D99" t="s">
+        <v>398</v>
+      </c>
+      <c r="E99" t="s">
+        <v>64</v>
+      </c>
+      <c r="F99" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>399</v>
+      </c>
+      <c r="B100" t="s">
+        <v>350</v>
+      </c>
+      <c r="C100" t="s">
+        <v>400</v>
+      </c>
+      <c r="D100" t="s">
+        <v>401</v>
+      </c>
+      <c r="E100" t="s">
+        <v>69</v>
+      </c>
+      <c r="F100" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>402</v>
+      </c>
+      <c r="B101" t="s">
+        <v>403</v>
+      </c>
+      <c r="C101" t="s">
+        <v>404</v>
+      </c>
+      <c r="D101" t="s">
+        <v>405</v>
+      </c>
+      <c r="E101" t="s">
+        <v>74</v>
+      </c>
+      <c r="F101" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>406</v>
+      </c>
+      <c r="B102" t="s">
+        <v>407</v>
+      </c>
+      <c r="C102" t="s">
+        <v>408</v>
+      </c>
+      <c r="D102" t="s">
+        <v>409</v>
+      </c>
+      <c r="E102" t="s">
+        <v>79</v>
+      </c>
+      <c r="F102" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>410</v>
+      </c>
+      <c r="B103" t="s">
+        <v>411</v>
+      </c>
+      <c r="C103" t="s">
+        <v>412</v>
+      </c>
+      <c r="D103" t="s">
+        <v>413</v>
+      </c>
+      <c r="E103" t="s">
+        <v>84</v>
+      </c>
+      <c r="F103" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>414</v>
+      </c>
+      <c r="B104" t="s">
+        <v>415</v>
+      </c>
+      <c r="C104" t="s">
+        <v>416</v>
+      </c>
+      <c r="D104" t="s">
+        <v>417</v>
+      </c>
+      <c r="E104" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>418</v>
+      </c>
+      <c r="B105" t="s">
+        <v>419</v>
+      </c>
+      <c r="C105" t="s">
+        <v>420</v>
+      </c>
+      <c r="D105" t="s">
+        <v>421</v>
+      </c>
+      <c r="E105" t="s">
+        <v>19</v>
+      </c>
+      <c r="F105" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>422</v>
+      </c>
+      <c r="B106" t="s">
+        <v>296</v>
+      </c>
+      <c r="C106" t="s">
+        <v>423</v>
+      </c>
+      <c r="D106" t="s">
+        <v>424</v>
+      </c>
+      <c r="E106" t="s">
+        <v>24</v>
+      </c>
+      <c r="F106" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>425</v>
+      </c>
+      <c r="B107" t="s">
+        <v>426</v>
+      </c>
+      <c r="C107" t="s">
+        <v>427</v>
+      </c>
+      <c r="D107" t="s">
+        <v>428</v>
+      </c>
+      <c r="E107" t="s">
+        <v>29</v>
+      </c>
+      <c r="F107" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>429</v>
+      </c>
+      <c r="B108" t="s">
+        <v>430</v>
+      </c>
+      <c r="C108" t="s">
+        <v>431</v>
+      </c>
+      <c r="D108" t="s">
+        <v>432</v>
+      </c>
+      <c r="E108" t="s">
+        <v>34</v>
+      </c>
+      <c r="F108" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>433</v>
+      </c>
+      <c r="B109" t="s">
+        <v>434</v>
+      </c>
+      <c r="C109" t="s">
+        <v>435</v>
+      </c>
+      <c r="D109" t="s">
+        <v>436</v>
+      </c>
+      <c r="E109" t="s">
+        <v>39</v>
+      </c>
+      <c r="F109" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>288</v>
+      </c>
+      <c r="B110" t="s">
+        <v>437</v>
+      </c>
+      <c r="C110" t="s">
+        <v>438</v>
+      </c>
+      <c r="D110" t="s">
+        <v>439</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>440</v>
+      </c>
+      <c r="B111" t="s">
+        <v>441</v>
+      </c>
+      <c r="C111" t="s">
+        <v>442</v>
+      </c>
+      <c r="D111" t="s">
+        <v>443</v>
+      </c>
+      <c r="E111" t="s">
+        <v>49</v>
+      </c>
+      <c r="F111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>444</v>
+      </c>
+      <c r="B112" t="s">
+        <v>445</v>
+      </c>
+      <c r="C112" t="s">
+        <v>446</v>
+      </c>
+      <c r="D112" t="s">
+        <v>447</v>
+      </c>
+      <c r="E112" t="s">
+        <v>54</v>
+      </c>
+      <c r="F112" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>448</v>
+      </c>
+      <c r="B113" t="s">
+        <v>449</v>
+      </c>
+      <c r="C113" t="s">
+        <v>450</v>
+      </c>
+      <c r="D113" t="s">
+        <v>451</v>
+      </c>
+      <c r="E113" t="s">
+        <v>59</v>
+      </c>
+      <c r="F113" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>452</v>
+      </c>
+      <c r="B114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C114" t="s">
+        <v>454</v>
+      </c>
+      <c r="D114" t="s">
+        <v>455</v>
+      </c>
+      <c r="E114" t="s">
+        <v>64</v>
+      </c>
+      <c r="F114" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>456</v>
+      </c>
+      <c r="B115" t="s">
+        <v>457</v>
+      </c>
+      <c r="C115" t="s">
+        <v>458</v>
+      </c>
+      <c r="D115" t="s">
+        <v>459</v>
+      </c>
+      <c r="E115" t="s">
+        <v>69</v>
+      </c>
+      <c r="F115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>460</v>
+      </c>
+      <c r="B116" t="s">
+        <v>461</v>
+      </c>
+      <c r="C116" t="s">
+        <v>462</v>
+      </c>
+      <c r="D116" t="s">
+        <v>463</v>
+      </c>
+      <c r="E116" t="s">
+        <v>74</v>
+      </c>
+      <c r="F116" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>464</v>
+      </c>
+      <c r="B117" t="s">
+        <v>465</v>
+      </c>
+      <c r="C117" t="s">
+        <v>466</v>
+      </c>
+      <c r="D117" t="s">
+        <v>467</v>
+      </c>
+      <c r="E117" t="s">
+        <v>79</v>
+      </c>
+      <c r="F117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>468</v>
+      </c>
+      <c r="B118" t="s">
+        <v>469</v>
+      </c>
+      <c r="C118" t="s">
+        <v>470</v>
+      </c>
+      <c r="D118" t="s">
+        <v>471</v>
+      </c>
+      <c r="E118" t="s">
+        <v>84</v>
+      </c>
+      <c r="F118" t="s">
+        <v>13</v>
+      </c>
+      <c r="G118" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>472</v>
+      </c>
+      <c r="B119" t="s">
+        <v>473</v>
+      </c>
+      <c r="C119" t="s">
+        <v>474</v>
+      </c>
+      <c r="D119" t="s">
+        <v>475</v>
+      </c>
+      <c r="E119" t="s">
+        <v>24</v>
+      </c>
+      <c r="F119" t="s">
+        <v>13</v>
+      </c>
+      <c r="G119" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>476</v>
+      </c>
+      <c r="B120" t="s">
+        <v>477</v>
+      </c>
+      <c r="C120" t="s">
+        <v>478</v>
+      </c>
+      <c r="D120" t="s">
+        <v>479</v>
+      </c>
+      <c r="E120" t="s">
+        <v>29</v>
+      </c>
+      <c r="F120" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
+        <v>480</v>
+      </c>
+      <c r="B121" t="s">
+        <v>481</v>
+      </c>
+      <c r="C121" t="s">
+        <v>482</v>
+      </c>
+      <c r="D121" t="s">
+        <v>483</v>
+      </c>
+      <c r="E121" t="s">
+        <v>34</v>
+      </c>
+      <c r="F121" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>484</v>
+      </c>
+      <c r="B122" t="s">
+        <v>485</v>
+      </c>
+      <c r="C122" t="s">
+        <v>486</v>
+      </c>
+      <c r="D122" t="s">
+        <v>487</v>
+      </c>
+      <c r="E122" t="s">
+        <v>39</v>
+      </c>
+      <c r="F122" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>488</v>
+      </c>
+      <c r="B123" t="s">
+        <v>489</v>
+      </c>
+      <c r="C123" t="s">
+        <v>490</v>
+      </c>
+      <c r="D123" t="s">
+        <v>491</v>
+      </c>
+      <c r="E123" t="s">
+        <v>44</v>
+      </c>
+      <c r="F123" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>492</v>
+      </c>
+      <c r="B124" t="s">
+        <v>493</v>
+      </c>
+      <c r="C124" t="s">
+        <v>494</v>
+      </c>
+      <c r="D124" t="s">
+        <v>495</v>
+      </c>
+      <c r="E124" t="s">
+        <v>49</v>
+      </c>
+      <c r="F124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G124" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>496</v>
+      </c>
+      <c r="B125" t="s">
+        <v>497</v>
+      </c>
+      <c r="C125" t="s">
+        <v>498</v>
+      </c>
+      <c r="D125" t="s">
+        <v>499</v>
+      </c>
+      <c r="E125" t="s">
+        <v>54</v>
+      </c>
+      <c r="F125" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>500</v>
+      </c>
+      <c r="B126" t="s">
+        <v>501</v>
+      </c>
+      <c r="C126" t="s">
+        <v>502</v>
+      </c>
+      <c r="D126" t="s">
+        <v>503</v>
+      </c>
+      <c r="E126" t="s">
+        <v>59</v>
+      </c>
+      <c r="F126" t="s">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
+        <v>504</v>
+      </c>
+      <c r="B127" t="s">
+        <v>135</v>
+      </c>
+      <c r="C127" t="s">
+        <v>505</v>
+      </c>
+      <c r="D127" t="s">
+        <v>506</v>
+      </c>
+      <c r="E127" t="s">
+        <v>64</v>
+      </c>
+      <c r="F127" t="s">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>507</v>
+      </c>
+      <c r="B128" t="s">
+        <v>508</v>
+      </c>
+      <c r="C128" t="s">
+        <v>509</v>
+      </c>
+      <c r="D128" t="s">
+        <v>510</v>
+      </c>
+      <c r="E128" t="s">
+        <v>69</v>
+      </c>
+      <c r="F128" t="s">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
+        <v>511</v>
+      </c>
+      <c r="B129" t="s">
+        <v>512</v>
+      </c>
+      <c r="C129" t="s">
+        <v>513</v>
+      </c>
+      <c r="D129" t="s">
+        <v>514</v>
+      </c>
+      <c r="E129" t="s">
+        <v>74</v>
+      </c>
+      <c r="F129" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>515</v>
+      </c>
+      <c r="B130" t="s">
+        <v>441</v>
+      </c>
+      <c r="C130" t="s">
+        <v>516</v>
+      </c>
+      <c r="D130" t="s">
+        <v>517</v>
+      </c>
+      <c r="E130" t="s">
+        <v>79</v>
+      </c>
+      <c r="F130" t="s">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="s">
+        <v>518</v>
+      </c>
+      <c r="B131" t="s">
+        <v>519</v>
+      </c>
+      <c r="C131" t="s">
+        <v>520</v>
+      </c>
+      <c r="D131" t="s">
+        <v>521</v>
+      </c>
+      <c r="E131" t="s">
+        <v>84</v>
+      </c>
+      <c r="F131" t="s">
+        <v>13</v>
+      </c>
+      <c r="G131" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
+        <v>522</v>
+      </c>
+      <c r="B132" t="s">
+        <v>523</v>
+      </c>
+      <c r="C132" t="s">
+        <v>524</v>
+      </c>
+      <c r="D132" t="s">
+        <v>525</v>
+      </c>
+      <c r="E132" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" t="s">
+        <v>13</v>
+      </c>
+      <c r="G132" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" t="s">
+        <v>526</v>
+      </c>
+      <c r="B133" t="s">
+        <v>527</v>
+      </c>
+      <c r="C133" t="s">
+        <v>528</v>
+      </c>
+      <c r="D133" t="s">
+        <v>529</v>
+      </c>
+      <c r="E133" t="s">
+        <v>19</v>
+      </c>
+      <c r="F133" t="s">
+        <v>13</v>
+      </c>
+      <c r="G133" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="s">
+        <v>530</v>
+      </c>
+      <c r="B134" t="s">
+        <v>531</v>
+      </c>
+      <c r="C134" t="s">
+        <v>532</v>
+      </c>
+      <c r="D134" t="s">
+        <v>533</v>
+      </c>
+      <c r="E134" t="s">
+        <v>24</v>
+      </c>
+      <c r="F134" t="s">
+        <v>13</v>
+      </c>
+      <c r="G134" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
+        <v>534</v>
+      </c>
+      <c r="B135" t="s">
+        <v>535</v>
+      </c>
+      <c r="C135" t="s">
+        <v>536</v>
+      </c>
+      <c r="D135" t="s">
+        <v>537</v>
+      </c>
+      <c r="E135" t="s">
+        <v>34</v>
+      </c>
+      <c r="F135" t="s">
+        <v>13</v>
+      </c>
+      <c r="G135" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>538</v>
+      </c>
+      <c r="B136" t="s">
+        <v>426</v>
+      </c>
+      <c r="C136" t="s">
+        <v>539</v>
+      </c>
+      <c r="D136" t="s">
+        <v>540</v>
+      </c>
+      <c r="E136" t="s">
+        <v>39</v>
+      </c>
+      <c r="F136" t="s">
+        <v>13</v>
+      </c>
+      <c r="G136" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>541</v>
+      </c>
+      <c r="B137" t="s">
+        <v>542</v>
+      </c>
+      <c r="C137" t="s">
+        <v>543</v>
+      </c>
+      <c r="D137" t="s">
+        <v>544</v>
+      </c>
+      <c r="E137" t="s">
+        <v>44</v>
+      </c>
+      <c r="F137" t="s">
+        <v>13</v>
+      </c>
+      <c r="G137" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>545</v>
+      </c>
+      <c r="B138" t="s">
+        <v>546</v>
+      </c>
+      <c r="C138" t="s">
+        <v>547</v>
+      </c>
+      <c r="D138" t="s">
+        <v>548</v>
+      </c>
+      <c r="E138" t="s">
+        <v>49</v>
+      </c>
+      <c r="F138" t="s">
+        <v>13</v>
+      </c>
+      <c r="G138" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="s">
+        <v>549</v>
+      </c>
+      <c r="B139" t="s">
+        <v>550</v>
+      </c>
+      <c r="C139" t="s">
+        <v>551</v>
+      </c>
+      <c r="D139" t="s">
+        <v>552</v>
+      </c>
+      <c r="E139" t="s">
+        <v>54</v>
+      </c>
+      <c r="F139" t="s">
+        <v>13</v>
+      </c>
+      <c r="G139" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" t="s">
+        <v>378</v>
+      </c>
+      <c r="B140" t="s">
+        <v>553</v>
+      </c>
+      <c r="C140" t="s">
+        <v>554</v>
+      </c>
+      <c r="D140" t="s">
+        <v>555</v>
+      </c>
+      <c r="E140" t="s">
+        <v>59</v>
+      </c>
+      <c r="F140" t="s">
+        <v>13</v>
+      </c>
+      <c r="G140" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" t="s">
+        <v>556</v>
+      </c>
+      <c r="B141" t="s">
+        <v>557</v>
+      </c>
+      <c r="C141" t="s">
+        <v>558</v>
+      </c>
+      <c r="D141" t="s">
+        <v>559</v>
+      </c>
+      <c r="E141" t="s">
+        <v>64</v>
+      </c>
+      <c r="F141" t="s">
+        <v>13</v>
+      </c>
+      <c r="G141" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" t="s">
+        <v>560</v>
+      </c>
+      <c r="B142" t="s">
+        <v>561</v>
+      </c>
+      <c r="C142" t="s">
+        <v>562</v>
+      </c>
+      <c r="D142" t="s">
+        <v>563</v>
+      </c>
+      <c r="E142" t="s">
+        <v>69</v>
+      </c>
+      <c r="F142" t="s">
+        <v>13</v>
+      </c>
+      <c r="G142" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>564</v>
+      </c>
+      <c r="B143" t="s">
+        <v>565</v>
+      </c>
+      <c r="C143" t="s">
+        <v>566</v>
+      </c>
+      <c r="D143" t="s">
+        <v>567</v>
+      </c>
+      <c r="E143" t="s">
+        <v>74</v>
+      </c>
+      <c r="F143" t="s">
+        <v>13</v>
+      </c>
+      <c r="G143" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>568</v>
+      </c>
+      <c r="B144" t="s">
+        <v>94</v>
+      </c>
+      <c r="C144" t="s">
+        <v>569</v>
+      </c>
+      <c r="D144" t="s">
+        <v>570</v>
+      </c>
+      <c r="E144" t="s">
+        <v>79</v>
+      </c>
+      <c r="F144" t="s">
+        <v>13</v>
+      </c>
+      <c r="G144" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/group_a.xlsx
+++ b/database/group_a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Upwork\2020\gmail_app\gmail_app_old\gmail_app_old\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1D3A26-DED6-4449-A8C6-02530A560858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF1E591-2F57-4D25-971E-CCBAD885B801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="group_a" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>FIRSTFROMNAME</t>
   </si>
@@ -43,25 +43,19 @@
     <t>PROXY_PASS</t>
   </si>
   <si>
-    <t xml:space="preserve">Adriana </t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>argentinaadriano08@gmail.com</t>
-  </si>
-  <si>
-    <t>dxftsjyntgpahura</t>
-  </si>
-  <si>
-    <t>81.28.96.144:4046</t>
-  </si>
-  <si>
-    <t>hZD3HF2EecZnGtWp</t>
-  </si>
-  <si>
-    <t>YXTAK2bpP9NGzRBS</t>
+    <t>catoirebuster348995@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lozh sfht fvyv uzje </t>
+  </si>
+  <si>
+    <t>185.125.171.131:4022</t>
+  </si>
+  <si>
+    <t>5Gre3gC3S1si</t>
+  </si>
+  <si>
+    <t>Vf0GMX6qc8e6</t>
   </si>
 </sst>
 </file>
@@ -895,19 +889,19 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="25.88671875" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -930,34 +924,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{CBA38B4A-71B6-4C91-B9D3-1E2AB1824182}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>